--- a/Куделин/Солнечная энергетика/Solar Europe Italy.xlsx
+++ b/Куделин/Солнечная энергетика/Solar Europe Italy.xlsx
@@ -1159,22 +1159,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>408.63793375205381</c:v>
+                  <c:v>0.2288310527622161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500.32401247573063</c:v>
+                  <c:v>0.2963044230989374</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>607.28785800523292</c:v>
+                  <c:v>0.38240263456829332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>728.72937701859018</c:v>
+                  <c:v>0.49195889541201976</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>862.06549197865536</c:v>
+                  <c:v>0.6317119170203439</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1009.5629948892995</c:v>
+                  <c:v>0.80912818826156019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,22 +1246,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>49.556239698116102</c:v>
+                  <c:v>19.747821590601554</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.030648305943252</c:v>
+                  <c:v>23.049489798763673</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.364809435833145</c:v>
+                  <c:v>20.962526227553397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.324315176399224</c:v>
+                  <c:v>23.390069305821751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.48390168417292</c:v>
+                  <c:v>25.006096894495819</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59.840865363608117</c:v>
+                  <c:v>25.531408180970306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,11 +1282,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799949088"/>
-        <c:axId val="1799960512"/>
+        <c:axId val="-85353456"/>
+        <c:axId val="-85362160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799949088"/>
+        <c:axId val="-85353456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1329,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799960512"/>
+        <c:crossAx val="-85362160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799960512"/>
+        <c:axId val="-85362160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1389,7 +1389,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799949088"/>
+        <c:crossAx val="-85353456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,19 +1754,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1251.6229425365664</c:v>
+                  <c:v>6.0330285145407245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1412.0989994378494</c:v>
+                  <c:v>7.24984563337701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1532.6827870532704</c:v>
+                  <c:v>8.5620936066406834</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1617.3943425636101</c:v>
+                  <c:v>10.592401679832166</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1793.9945725091175</c:v>
+                  <c:v>12.513511192632492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,19 +1827,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1260.4266624418017</c:v>
+                  <c:v>6.075372892818943</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1433.8167831687779</c:v>
+                  <c:v>7.3611478121553313</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1573.2346759015998</c:v>
+                  <c:v>8.7882883790691189</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1682.3052056342578</c:v>
+                  <c:v>11.016988062608469</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1894.7596360660773</c:v>
+                  <c:v>13.215644828853943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,11 +1860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799978464"/>
-        <c:axId val="1799954528"/>
+        <c:axId val="-85365968"/>
+        <c:axId val="-85361616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799978464"/>
+        <c:axId val="-85365968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +1907,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799954528"/>
+        <c:crossAx val="-85361616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1915,7 +1915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799954528"/>
+        <c:axId val="-85361616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1967,7 +1967,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799978464"/>
+        <c:crossAx val="-85365968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2335,19 +2335,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1282.6710547411697</c:v>
+                  <c:v>6.1823645931720366</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1480.5798828869756</c:v>
+                  <c:v>7.6008055483934482</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1653.1087633192303</c:v>
+                  <c:v>9.2338188226431264</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1803.0404518681667</c:v>
+                  <c:v>11.806725543317494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2075.1571216730172</c:v>
+                  <c:v>14.472659294614765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,19 +2408,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1283.0689243794982</c:v>
+                  <c:v>6.1842782776885983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1481.4109198085655</c:v>
+                  <c:v>7.6050645566405208</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1654.5371930226654</c:v>
+                  <c:v>9.2417864744806764</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1805.2250528332677</c:v>
+                  <c:v>11.821015167237183</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2078.4691924132376</c:v>
+                  <c:v>14.495737891403811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,11 +2441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799955072"/>
-        <c:axId val="1799956160"/>
+        <c:axId val="-85351280"/>
+        <c:axId val="-85350736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799955072"/>
+        <c:axId val="-85351280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2488,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799956160"/>
+        <c:crossAx val="-85350736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2496,7 +2496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799956160"/>
+        <c:axId val="-85350736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -2548,7 +2548,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799955072"/>
+        <c:crossAx val="-85351280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2840,88 +2840,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>13381.884159468407</c:v>
+                  <c:v>4.4908999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13797.191627218766</c:v>
+                  <c:v>4.7833411111111113E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14128.649634452517</c:v>
+                  <c:v>5.6997244444444449E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14511.019560935903</c:v>
+                  <c:v>6.7151500000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14925.882475218497</c:v>
+                  <c:v>8.0289055555555572E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15563.882921480617</c:v>
+                  <c:v>7.4515250000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15799.596068168668</c:v>
+                  <c:v>0.1942865</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16357.739666156878</c:v>
+                  <c:v>0.31479300555555562</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16935.121568843122</c:v>
+                  <c:v>0.4688157444444444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17736.914638193048</c:v>
+                  <c:v>0.75098587288888896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18464.078545158507</c:v>
+                  <c:v>1.5125292461111111</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19166.692215718551</c:v>
+                  <c:v>2.5696538138888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20058.735773087752</c:v>
+                  <c:v>3.8781358194444442</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20435.969784417954</c:v>
+                  <c:v>7.5893511322222222</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20278.499739432627</c:v>
+                  <c:v>14.32391649666268</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21589.613748314347</c:v>
+                  <c:v>23.49694855276784</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22277.930768954324</c:v>
+                  <c:v>47.169829848214562</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22832.897362521064</c:v>
+                  <c:v>72.209920163895447</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23467.918512807806</c:v>
+                  <c:v>86.539293843353136</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24074.119579745573</c:v>
+                  <c:v>98.23745086832993</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24308.615009446032</c:v>
+                  <c:v>109.12889129282949</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24951.573195105961</c:v>
+                  <c:v>113.33675806052599</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25699.435183038651</c:v>
+                  <c:v>123.6098622674243</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26745.772154130489</c:v>
+                  <c:v>137.07028077749499</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27099.499905623976</c:v>
+                  <c:v>151.15856223130299</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26986.49569151612</c:v>
+                  <c:v>176.52050900938389</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28520.172901436086</c:v>
+                  <c:v>198.72932143421099</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29165.129834866351</c:v>
+                  <c:v>246.43538769986671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,11 +3150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799965952"/>
-        <c:axId val="1799967040"/>
+        <c:axId val="-85348560"/>
+        <c:axId val="-85342032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799965952"/>
+        <c:axId val="-85348560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3197,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799967040"/>
+        <c:crossAx val="-85342032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3205,7 +3205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799967040"/>
+        <c:axId val="-85342032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3256,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799965952"/>
+        <c:crossAx val="-85348560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4829,11 +4829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799956704"/>
-        <c:axId val="1799969216"/>
+        <c:axId val="-85352912"/>
+        <c:axId val="-85372496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799956704"/>
+        <c:axId val="-85352912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4932,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799969216"/>
+        <c:crossAx val="-85372496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4940,7 +4940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799969216"/>
+        <c:axId val="-85372496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5051,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799956704"/>
+        <c:crossAx val="-85352912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6641,11 +6641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799970304"/>
-        <c:axId val="1799971392"/>
+        <c:axId val="-85352368"/>
+        <c:axId val="-85346384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799970304"/>
+        <c:axId val="-85352368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6744,7 +6744,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799971392"/>
+        <c:crossAx val="-85346384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6752,7 +6752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799971392"/>
+        <c:axId val="-85346384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6926,7 +6926,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799970304"/>
+        <c:crossAx val="-85352368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8516,11 +8516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799971936"/>
-        <c:axId val="1799972480"/>
+        <c:axId val="-85368144"/>
+        <c:axId val="-85347472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799971936"/>
+        <c:axId val="-85368144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,7 +8618,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799972480"/>
+        <c:crossAx val="-85347472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8626,7 +8626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799972480"/>
+        <c:axId val="-85347472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8737,7 +8737,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799971936"/>
+        <c:crossAx val="-85368144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12746,7 +12746,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12782,7 +12782,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12818,7 +12818,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12859,7 +12859,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12900,7 +12900,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12938,7 +12938,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12976,7 +12976,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13268,7 +13268,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:AF3"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13475,88 +13475,88 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>13381.884159468407</v>
+        <v>4.4908999999999998E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>13797.191627218766</v>
+        <v>4.7833411111111113E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>14128.649634452517</v>
+        <v>5.6997244444444449E-2</v>
       </c>
       <c r="H4" s="1">
-        <v>14511.019560935903</v>
+        <v>6.7151500000000003E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>14925.882475218497</v>
+        <v>8.0289055555555572E-2</v>
       </c>
       <c r="J4" s="1">
-        <v>15563.882921480617</v>
+        <v>7.4515250000000005E-2</v>
       </c>
       <c r="K4" s="1">
-        <v>15799.596068168668</v>
+        <v>0.1942865</v>
       </c>
       <c r="L4" s="1">
-        <v>16357.739666156878</v>
+        <v>0.31479300555555562</v>
       </c>
       <c r="M4" s="1">
-        <v>16935.121568843122</v>
+        <v>0.4688157444444444</v>
       </c>
       <c r="N4" s="1">
-        <v>17736.914638193048</v>
+        <v>0.75098587288888896</v>
       </c>
       <c r="O4" s="1">
-        <v>18464.078545158507</v>
+        <v>1.5125292461111111</v>
       </c>
       <c r="P4" s="1">
-        <v>19166.692215718551</v>
+        <v>2.5696538138888889</v>
       </c>
       <c r="Q4" s="1">
-        <v>20058.735773087752</v>
+        <v>3.8781358194444442</v>
       </c>
       <c r="R4" s="1">
-        <v>20435.969784417954</v>
+        <v>7.5893511322222222</v>
       </c>
       <c r="S4" s="1">
-        <v>20278.499739432627</v>
+        <v>14.32391649666268</v>
       </c>
       <c r="T4" s="1">
-        <v>21589.613748314347</v>
+        <v>23.49694855276784</v>
       </c>
       <c r="U4" s="1">
-        <v>22277.930768954324</v>
+        <v>47.169829848214562</v>
       </c>
       <c r="V4" s="1">
-        <v>22832.897362521064</v>
+        <v>72.209920163895447</v>
       </c>
       <c r="W4" s="1">
-        <v>23467.918512807806</v>
+        <v>86.539293843353136</v>
       </c>
       <c r="X4" s="1">
-        <v>24074.119579745573</v>
+        <v>98.23745086832993</v>
       </c>
       <c r="Y4" s="1">
-        <v>24308.615009446032</v>
+        <v>109.12889129282949</v>
       </c>
       <c r="Z4" s="1">
-        <v>24951.573195105961</v>
+        <v>113.33675806052599</v>
       </c>
       <c r="AA4" s="1">
-        <v>25699.435183038651</v>
+        <v>123.6098622674243</v>
       </c>
       <c r="AB4" s="38">
-        <v>26745.772154130489</v>
+        <v>137.07028077749499</v>
       </c>
       <c r="AC4" s="1">
-        <v>27099.499905623976</v>
+        <v>151.15856223130299</v>
       </c>
       <c r="AD4" s="1">
-        <v>26986.49569151612</v>
+        <v>176.52050900938389</v>
       </c>
       <c r="AE4" s="1">
-        <v>28520.172901436086</v>
+        <v>198.72932143421099</v>
       </c>
       <c r="AF4" s="39">
-        <v>29165.129834866351</v>
+        <v>246.43538769986671</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -14419,111 +14419,111 @@
       </c>
       <c r="F16">
         <f>$A16*($C16*E$4)+($B16-$A16)*(E$3)-($B16/($C16*E$4))*(E3^2)</f>
-        <v>0.54860479295530939</v>
+        <v>-1.0038356912910787E-2</v>
       </c>
       <c r="G16">
         <f>$A16*($C16*F$4)+($B16-$A16)*(F$17)-($B16/($C16*F$4))*(F17^2)</f>
-        <v>0.7188191953148485</v>
+        <v>1.6364135779179268E-4</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:AF16" si="6">$A16*($C16*G$4)+($B16-$A16)*(G$17)-($B16/($C16*G$4))*(G17^2)</f>
-        <v>0.93295348504796938</v>
+        <v>2.533960244819601E-4</v>
       </c>
       <c r="I16">
         <f t="shared" si="6"/>
-        <v>1.2085643305594247</v>
+        <v>3.2963595660823273E-4</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>1.561737512797325</v>
+        <v>4.1768117257861225E-4</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>2.0214173354715914</v>
+        <v>3.2642223729976224E-4</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>2.5906967695724079</v>
+        <v>8.81980707749681E-4</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
-        <v>3.3285899079781514</v>
+        <v>1.1757782602696075E-3</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>4.2673556241562984</v>
+        <v>1.5107578977399071E-3</v>
       </c>
       <c r="O16">
         <f t="shared" si="6"/>
-        <v>5.468407258360644</v>
+        <v>1.9618486053909448E-3</v>
       </c>
       <c r="P16">
         <f t="shared" si="6"/>
-        <v>6.986426125962045</v>
+        <v>2.6132561587849344E-3</v>
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>8.9027927471352974</v>
+        <v>3.4020022189910877E-3</v>
       </c>
       <c r="R16">
         <f t="shared" si="6"/>
-        <v>11.325671166061364</v>
+        <v>4.3910061837143834E-3</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>14.334466389469867</v>
+        <v>5.8105922317671947E-3</v>
       </c>
       <c r="T16">
         <f t="shared" si="6"/>
-        <v>18.03933776117951</v>
+        <v>7.7343440726293936E-3</v>
       </c>
       <c r="U16">
         <f t="shared" si="6"/>
-        <v>22.736520420884446</v>
+        <v>1.0266408660024985E-2</v>
       </c>
       <c r="V16">
         <f t="shared" si="6"/>
-        <v>28.462238487723965</v>
+        <v>1.4128434254422411E-2</v>
       </c>
       <c r="W16">
         <f t="shared" si="6"/>
-        <v>35.406236054672362</v>
+        <v>1.907763671408326E-2</v>
       </c>
       <c r="X16">
         <f t="shared" si="6"/>
-        <v>43.750654803691361</v>
+        <v>2.4914717568289793E-2</v>
       </c>
       <c r="Y16">
         <f t="shared" si="6"/>
-        <v>53.599613317131571</v>
+        <v>3.2221338627212472E-2</v>
       </c>
       <c r="Z16">
         <f t="shared" si="6"/>
-        <v>64.824401885389946</v>
+        <v>4.145815363992645E-2</v>
       </c>
       <c r="AA16">
         <f t="shared" si="6"/>
-        <v>77.609428380538134</v>
+        <v>5.2830377125370032E-2</v>
       </c>
       <c r="AB16" s="43">
         <f t="shared" si="6"/>
-        <v>91.686078723676815</v>
+        <v>6.7473370336721308E-2</v>
       </c>
       <c r="AC16" s="44">
         <f t="shared" si="6"/>
-        <v>106.96384552950229</v>
+        <v>8.6098211469355923E-2</v>
       </c>
       <c r="AD16" s="44">
         <f t="shared" si="6"/>
-        <v>121.44151901335724</v>
+        <v>0.10955626084372647</v>
       </c>
       <c r="AE16" s="44">
         <f t="shared" si="6"/>
-        <v>133.33611496006517</v>
+        <v>0.13975302160832415</v>
       </c>
       <c r="AF16" s="45">
         <f t="shared" si="6"/>
-        <v>147.49750291064407</v>
+        <v>0.17741627124121623</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -14539,111 +14539,111 @@
       </c>
       <c r="F17" s="6">
         <f>E$3+F16</f>
-        <v>0.56160479295530941</v>
+        <v>2.9616430870892125E-3</v>
       </c>
       <c r="G17" s="6">
         <f>F17+G16</f>
-        <v>1.280423988270158</v>
+        <v>3.1252844448810052E-3</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ref="H17" si="7">G17+H16</f>
-        <v>2.2133774733181273</v>
+        <v>3.3786804693629654E-3</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ref="I17" si="8">H17+I16</f>
-        <v>3.421941803877552</v>
+        <v>3.7083164259711981E-3</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" ref="J17" si="9">I17+J16</f>
-        <v>4.983679316674877</v>
+        <v>4.1259975985498106E-3</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ref="K17" si="10">J17+K16</f>
-        <v>7.0050966521464684</v>
+        <v>4.4524198358495727E-3</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ref="L17" si="11">K17+L16</f>
-        <v>9.5957934217188772</v>
+        <v>5.3344005435992537E-3</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" ref="M17" si="12">L17+M16</f>
-        <v>12.924383329697029</v>
+        <v>6.5101788038688614E-3</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" ref="N17" si="13">M17+N16</f>
-        <v>17.191738953853328</v>
+        <v>8.0209367016087687E-3</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" ref="O17" si="14">N17+O16</f>
-        <v>22.660146212213974</v>
+        <v>9.9827853069997131E-3</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" ref="P17" si="15">O17+P16</f>
-        <v>29.646572338176018</v>
+        <v>1.2596041465784647E-2</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" ref="Q17" si="16">P17+Q16</f>
-        <v>38.549365085311315</v>
+        <v>1.5998043684775736E-2</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" ref="R17" si="17">Q17+R16</f>
-        <v>49.875036251372677</v>
+        <v>2.0389049868490119E-2</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" ref="S17" si="18">R17+S16</f>
-        <v>64.209502640842544</v>
+        <v>2.6199642100257315E-2</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" ref="T17" si="19">S17+T16</f>
-        <v>82.248840402022054</v>
+        <v>3.3933986172886711E-2</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" ref="U17" si="20">T17+U16</f>
-        <v>104.9853608229065</v>
+        <v>4.4200394832911695E-2</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" ref="V17" si="21">U17+V16</f>
-        <v>133.44759931063047</v>
+        <v>5.8328829087334104E-2</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" ref="W17" si="22">V17+W16</f>
-        <v>168.85383536530281</v>
+        <v>7.7406465801417357E-2</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" ref="X17" si="23">W17+X16</f>
-        <v>212.60449016899418</v>
+        <v>0.10232118336970715</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" ref="Y17" si="24">X17+Y16</f>
-        <v>266.20410348612575</v>
+        <v>0.13454252199691963</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" ref="Z17" si="25">Y17+Z16</f>
-        <v>331.02850537151568</v>
+        <v>0.17600067563684607</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" ref="AA17" si="26">Z17+AA16</f>
-        <v>408.63793375205381</v>
+        <v>0.2288310527622161</v>
       </c>
       <c r="AB17" s="49">
         <f t="shared" ref="AB17" si="27">AA17+AB16</f>
-        <v>500.32401247573063</v>
+        <v>0.2963044230989374</v>
       </c>
       <c r="AC17" s="50">
         <f t="shared" ref="AC17" si="28">AB17+AC16</f>
-        <v>607.28785800523292</v>
+        <v>0.38240263456829332</v>
       </c>
       <c r="AD17" s="50">
         <f t="shared" ref="AD17" si="29">AC17+AD16</f>
-        <v>728.72937701859018</v>
+        <v>0.49195889541201976</v>
       </c>
       <c r="AE17" s="50">
         <f t="shared" ref="AE17" si="30">AD17+AE16</f>
-        <v>862.06549197865536</v>
+        <v>0.6317119170203439</v>
       </c>
       <c r="AF17" s="51">
         <f t="shared" ref="AF17" si="31">AE17+AF16</f>
-        <v>1009.5629948892995</v>
+        <v>0.80912818826156019</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -14652,126 +14652,126 @@
       </c>
       <c r="B18" s="17">
         <f>AF17-$AF$3</f>
-        <v>982.04286851304289</v>
+        <v>-26.71099818799502</v>
       </c>
       <c r="C18" s="18">
         <f>((AF17-AA17)-($AF$3-$AA$3))</f>
-        <v>597.78263476098903</v>
+        <v>-2.562129240757236</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="5">
         <f>SUM(F18:AA18)</f>
-        <v>398644.59726276691</v>
+        <v>3013.0818076093983</v>
       </c>
       <c r="F18">
         <f>(F3-F17)^2</f>
-        <v>0.29987100926762728</v>
+        <v>1.2184532333680538E-4</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:AF18" si="32">(G3-G17)^2</f>
-        <v>1.6012978700895533</v>
+        <v>1.4100886951498497E-4</v>
       </c>
       <c r="H18">
         <f t="shared" si="32"/>
-        <v>4.8284677602459567</v>
+        <v>1.5929770669443987E-4</v>
       </c>
       <c r="I18">
         <f>(I3-I17)^2</f>
-        <v>11.593628687792918</v>
+        <v>1.7666885223210707E-4</v>
       </c>
       <c r="J18">
         <f t="shared" si="32"/>
-        <v>24.657971076052675</v>
+        <v>1.9248794263544561E-4</v>
       </c>
       <c r="K18">
         <f t="shared" si="32"/>
-        <v>48.805546433132093</v>
+        <v>2.1163208863238296E-4</v>
       </c>
       <c r="L18">
         <f t="shared" si="32"/>
-        <v>91.676669068591067</v>
+        <v>2.4541100632838336E-4</v>
       </c>
       <c r="M18">
         <f t="shared" si="32"/>
-        <v>166.41989005312504</v>
+        <v>3.0589384547263803E-4</v>
       </c>
       <c r="N18">
         <f t="shared" si="32"/>
-        <v>294.55960839811445</v>
+        <v>4.4012109687790611E-4</v>
       </c>
       <c r="O18">
         <f t="shared" si="32"/>
-        <v>512.07825829375804</v>
+        <v>4.4172331345166722E-4</v>
       </c>
       <c r="P18">
         <f t="shared" si="32"/>
-        <v>876.84521633903114</v>
+        <v>5.0193735800284096E-4</v>
       </c>
       <c r="Q18">
         <f t="shared" si="32"/>
-        <v>1483.0482190039647</v>
+        <v>5.2908999432748542E-4</v>
       </c>
       <c r="R18">
         <f t="shared" si="32"/>
-        <v>2468.3047260827088</v>
+        <v>2.9794540105302598E-2</v>
       </c>
       <c r="S18">
         <f t="shared" si="32"/>
-        <v>4036.3788918086648</v>
+        <v>0.42354110584243326</v>
       </c>
       <c r="T18">
         <f t="shared" si="32"/>
-        <v>6455.0202096590292</v>
+        <v>3.503508010518241</v>
       </c>
       <c r="U18">
         <f t="shared" si="32"/>
-        <v>8871.6922059341687</v>
+        <v>115.59474375990807</v>
       </c>
       <c r="V18">
         <f t="shared" si="32"/>
-        <v>13129.928320825944</v>
+        <v>353.56676739110952</v>
       </c>
       <c r="W18">
         <f t="shared" si="32"/>
-        <v>21687.049547198039</v>
+        <v>462.73144726574691</v>
       </c>
       <c r="X18">
         <f t="shared" si="32"/>
-        <v>36213.363121966642</v>
+        <v>493.02111609513014</v>
       </c>
       <c r="Y18">
         <f t="shared" si="32"/>
-        <v>59176.353687693154</v>
+        <v>520.18923963390978</v>
       </c>
       <c r="Z18">
         <f t="shared" si="32"/>
-        <v>95434.16466442238</v>
+        <v>480.85031125886547</v>
       </c>
       <c r="AA18">
         <f t="shared" si="32"/>
-        <v>147655.92724318302</v>
+        <v>583.16787143086526</v>
       </c>
       <c r="AB18" s="43">
         <f t="shared" si="32"/>
-        <v>228168.83188660964</v>
+        <v>499.85760847115057</v>
       </c>
       <c r="AC18" s="44">
         <f t="shared" si="32"/>
-        <v>340587.74378479365</v>
+        <v>543.19281944487511</v>
       </c>
       <c r="AD18" s="44">
         <f t="shared" si="32"/>
-        <v>495317.37583833421</v>
+        <v>597.7800602249373</v>
       </c>
       <c r="AE18" s="44">
         <f t="shared" si="32"/>
-        <v>700613.34827409405</v>
+        <v>595.71571156556081</v>
       </c>
       <c r="AF18" s="45">
         <f t="shared" si="32"/>
-        <v>964408.19559732568</v>
+        <v>713.47742419907331</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14780,126 +14780,126 @@
       </c>
       <c r="B19" s="20">
         <f>(B18/$AF$3)*100</f>
-        <v>3568.4533387910451</v>
+        <v>-97.059867468633257</v>
       </c>
       <c r="C19" s="21">
         <f>((C18)/($AF$3-$AA$3))*100</f>
-        <v>19022.963887959038</v>
+        <v>-81.533469172613565</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="5">
         <f>SUM(F19:AA19)</f>
-        <v>1826.0990309399795</v>
+        <v>145.04795147000266</v>
       </c>
       <c r="F19">
         <f>SQRT(F18)</f>
-        <v>0.54760479295530939</v>
+        <v>1.1038356912910788E-2</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="33">SQRT(G18)</f>
-        <v>1.2654239882701581</v>
+        <v>1.1874715555118993E-2</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19" si="34">SQRT(H18)</f>
-        <v>2.1973774733181273</v>
+        <v>1.2621319530637035E-2</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="35">SQRT(I18)</f>
-        <v>3.4049418038775521</v>
+        <v>1.3291683574028802E-2</v>
       </c>
       <c r="J19">
         <f t="shared" ref="J19" si="36">SQRT(J18)</f>
-        <v>4.9656793166748772</v>
+        <v>1.3874002401450189E-2</v>
       </c>
       <c r="K19">
         <f t="shared" ref="K19" si="37">SQRT(K18)</f>
-        <v>6.9860966521464682</v>
+        <v>1.4547580164150427E-2</v>
       </c>
       <c r="L19">
         <f t="shared" ref="L19" si="38">SQRT(L18)</f>
-        <v>9.5747934217188764</v>
+        <v>1.5665599456400746E-2</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19" si="39">SQRT(M18)</f>
-        <v>12.90038332969703</v>
+        <v>1.7489821196131138E-2</v>
       </c>
       <c r="N19">
         <f t="shared" ref="N19" si="40">SQRT(N18)</f>
-        <v>17.162738953853328</v>
+        <v>2.0979063298391235E-2</v>
       </c>
       <c r="O19">
         <f t="shared" ref="O19" si="41">SQRT(O18)</f>
-        <v>22.629146212213975</v>
+        <v>2.1017214693000288E-2</v>
       </c>
       <c r="P19">
         <f t="shared" ref="P19" si="42">SQRT(P18)</f>
-        <v>29.611572338176018</v>
+        <v>2.2403958534215354E-2</v>
       </c>
       <c r="Q19">
         <f t="shared" ref="Q19" si="43">SQRT(Q18)</f>
-        <v>38.510365085311314</v>
+        <v>2.3001956315224264E-2</v>
       </c>
       <c r="R19">
         <f t="shared" ref="R19" si="44">SQRT(R18)</f>
-        <v>49.682036251372679</v>
+        <v>0.1726109501315099</v>
       </c>
       <c r="S19">
         <f t="shared" ref="S19" si="45">SQRT(S18)</f>
-        <v>63.532502640842544</v>
+        <v>0.65080035789974278</v>
       </c>
       <c r="T19">
         <f t="shared" ref="T19" si="46">SQRT(T18)</f>
-        <v>80.343140402022058</v>
+        <v>1.8717660138271133</v>
       </c>
       <c r="U19">
         <f t="shared" ref="U19" si="47">SQRT(U18)</f>
-        <v>94.189660822906504</v>
+        <v>10.751499605167089</v>
       </c>
       <c r="V19">
         <f t="shared" ref="V19" si="48">SQRT(V18)</f>
-        <v>114.58589931063047</v>
+        <v>18.803371170912666</v>
       </c>
       <c r="W19">
         <f t="shared" ref="W19" si="49">SQRT(W18)</f>
-        <v>147.26523536530283</v>
+        <v>21.511193534198583</v>
       </c>
       <c r="X19">
         <f t="shared" ref="X19" si="50">SQRT(X18)</f>
-        <v>190.29809016899418</v>
+        <v>22.204078816630293</v>
       </c>
       <c r="Y19">
         <f t="shared" ref="Y19" si="51">SQRT(Y18)</f>
-        <v>243.26190348612573</v>
+        <v>22.80765747800308</v>
       </c>
       <c r="Z19">
         <f t="shared" ref="Z19" si="52">SQRT(Z18)</f>
-        <v>308.92420537151565</v>
+        <v>21.928299324363152</v>
       </c>
       <c r="AA19">
         <f t="shared" ref="AA19" si="53">SQRT(AA18)</f>
-        <v>384.26023375205381</v>
+        <v>24.148868947237784</v>
       </c>
       <c r="AB19" s="43">
         <f t="shared" ref="AB19" si="54">SQRT(AB18)</f>
-        <v>477.67021247573064</v>
+        <v>22.357495576901062</v>
       </c>
       <c r="AC19" s="44">
         <f t="shared" ref="AC19" si="55">SQRT(AC18)</f>
-        <v>583.59895800523293</v>
+        <v>23.306497365431706</v>
       </c>
       <c r="AD19" s="44">
         <f t="shared" ref="AD19" si="56">SQRT(AD18)</f>
-        <v>703.78787701859017</v>
+        <v>24.449541104587983</v>
       </c>
       <c r="AE19" s="44">
         <f t="shared" ref="AE19" si="57">SQRT(AE18)</f>
-        <v>837.02649197865537</v>
+        <v>24.407288082979658</v>
       </c>
       <c r="AF19" s="45">
         <f t="shared" ref="AF19" si="58">SQRT(AF18)</f>
-        <v>982.04286851304289</v>
+        <v>26.71099818799502</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15044,111 +15044,111 @@
       </c>
       <c r="F24">
         <f>$A24*($C24/($C24+E5))*E$4+($B24-$A24)*(E$3)-($B24/(($C24/($C24+E5))*E$4)*(E$3^2))</f>
-        <v>3.7720786655895839</v>
+        <v>-1.4142629288339028E-2</v>
       </c>
       <c r="G24">
         <f>$A24*($C24/($C24+F5))*F$4+($B24-$A24)*(F$25)-($B24/(($C24/($C24+F5))*F$4)*(F$25^2))</f>
-        <v>4.8956814293063191</v>
+        <v>-3.4675657062924864E-4</v>
       </c>
       <c r="H24">
         <f t="shared" ref="H24:AF24" si="60">$A24*($C24/($C24+G5))*G$4+($B24-$A24)*(G$25)-($B24/(($C24/($C24+G5))*G$4)*(G$25^2))</f>
-        <v>5.4492972394530241</v>
+        <v>-1.0354729566114454E-2</v>
       </c>
       <c r="I24">
         <f t="shared" si="60"/>
-        <v>5.9173667524462195</v>
+        <v>-2.2738664726316472E-4</v>
       </c>
       <c r="J24">
         <f t="shared" si="60"/>
-        <v>6.3989027797969635</v>
+        <v>-8.0071199399400321E-3</v>
       </c>
       <c r="K24">
         <f t="shared" si="60"/>
-        <v>6.9859403991800972</v>
+        <v>-1.8578716041564036E-3</v>
       </c>
       <c r="L24">
         <f t="shared" si="60"/>
-        <v>7.4727730485036972</v>
+        <v>-9.626369200929452E-4</v>
       </c>
       <c r="M24">
         <f t="shared" si="60"/>
-        <v>8.0831026884434998</v>
+        <v>6.8023126472158526E-4</v>
       </c>
       <c r="N24">
         <f t="shared" si="60"/>
-        <v>8.756154937070793</v>
+        <v>1.7703930089263097E-3</v>
       </c>
       <c r="O24">
         <f t="shared" si="60"/>
-        <v>9.5699541489010027</v>
+        <v>3.2551018472820005E-3</v>
       </c>
       <c r="P24">
         <f t="shared" si="60"/>
-        <v>10.418695649491756</v>
+        <v>5.6607973017697433E-3</v>
       </c>
       <c r="Q24">
         <f t="shared" si="60"/>
-        <v>11.298866554551005</v>
+        <v>7.6549588853234811E-3</v>
       </c>
       <c r="R24">
         <f t="shared" si="60"/>
-        <v>12.315478752758061</v>
+        <v>9.8303596481429945E-3</v>
       </c>
       <c r="S24">
         <f t="shared" si="60"/>
-        <v>13.139095471063502</v>
+        <v>1.3570108196048781E-2</v>
       </c>
       <c r="T24">
         <f t="shared" si="60"/>
-        <v>13.68894908674601</v>
+        <v>4.4778235502027378E-2</v>
       </c>
       <c r="U24">
         <f t="shared" si="60"/>
-        <v>15.068796933555788</v>
+        <v>0.11689659484653797</v>
       </c>
       <c r="V24">
         <f t="shared" si="60"/>
-        <v>16.480680779798256</v>
+        <v>0.26950860989994518</v>
       </c>
       <c r="W24">
         <f t="shared" si="60"/>
-        <v>19.457295828109835</v>
+        <v>-1.1744659437638116</v>
       </c>
       <c r="X24">
         <f t="shared" si="60"/>
-        <v>22.651377092704241</v>
+        <v>-3.5367195892654149</v>
       </c>
       <c r="Y24">
         <f t="shared" si="60"/>
-        <v>24.788496089846479</v>
+        <v>-2.6118898794659233</v>
       </c>
       <c r="Z24">
         <f t="shared" si="60"/>
-        <v>26.069780111527479</v>
+        <v>-2.487366570417576</v>
       </c>
       <c r="AA24">
         <f t="shared" si="60"/>
-        <v>27.451939698116107</v>
+        <v>-2.3564784093984441</v>
       </c>
       <c r="AB24" s="43">
         <f t="shared" si="60"/>
-        <v>28.652948305943251</v>
+        <v>-1.3282102012363257</v>
       </c>
       <c r="AC24" s="44">
         <f t="shared" si="60"/>
-        <v>30.711009435833144</v>
+        <v>-1.6912737724466016</v>
       </c>
       <c r="AD24" s="44">
         <f t="shared" si="60"/>
-        <v>31.635415176399224</v>
+        <v>-0.29883069417825059</v>
       </c>
       <c r="AE24" s="44">
         <f t="shared" si="60"/>
-        <v>32.542401684172916</v>
+        <v>6.4596894495817736E-2</v>
       </c>
       <c r="AF24" s="45">
         <f t="shared" si="60"/>
-        <v>34.801865363608115</v>
+        <v>0.49240818097030559</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -15164,111 +15164,111 @@
       </c>
       <c r="F25" s="6">
         <f>E$3+F24</f>
-        <v>3.7850786655895838</v>
+        <v>-1.1426292883390289E-3</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" ref="G25:AF25" si="61">F$3+G24</f>
-        <v>4.9096814293063193</v>
+        <v>1.3653243429370751E-2</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="61"/>
-        <v>5.4642972394530238</v>
+        <v>4.6452704338855455E-3</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="61"/>
-        <v>5.9333667524462195</v>
+        <v>1.5772613352736834E-2</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="61"/>
-        <v>6.4159027797969639</v>
+        <v>8.9928800600599691E-3</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="61"/>
-        <v>7.003940399180097</v>
+        <v>1.6142128395843596E-2</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="61"/>
-        <v>7.4917730485036973</v>
+        <v>1.8037363079907054E-2</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="61"/>
-        <v>8.1041026884435006</v>
+        <v>2.1680231264721586E-2</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="61"/>
-        <v>8.7801549370707921</v>
+        <v>2.577039300892631E-2</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="61"/>
-        <v>9.5989541489010026</v>
+        <v>3.2255101847282003E-2</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="61"/>
-        <v>10.449695649491757</v>
+        <v>3.6660797301769743E-2</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="61"/>
-        <v>11.333866554551005</v>
+        <v>4.2654958885323488E-2</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="61"/>
-        <v>12.354478752758061</v>
+        <v>4.8830359648142994E-2</v>
       </c>
       <c r="S25" s="6">
         <f t="shared" si="61"/>
-        <v>13.332095471063502</v>
+        <v>0.20657010819604879</v>
       </c>
       <c r="T25" s="6">
         <f t="shared" si="61"/>
-        <v>14.36594908674601</v>
+        <v>0.72177823550202747</v>
       </c>
       <c r="U25" s="6">
         <f t="shared" si="61"/>
-        <v>16.974496933555788</v>
+        <v>2.0225965948465379</v>
       </c>
       <c r="V25" s="6">
         <f t="shared" si="61"/>
-        <v>27.276380779798256</v>
+        <v>11.065208609899946</v>
       </c>
       <c r="W25" s="6">
         <f t="shared" si="61"/>
-        <v>38.318995828109834</v>
+        <v>17.687234056236186</v>
       </c>
       <c r="X25" s="6">
         <f t="shared" si="61"/>
-        <v>44.239977092704237</v>
+        <v>18.051880410734583</v>
       </c>
       <c r="Y25" s="6">
         <f t="shared" si="61"/>
-        <v>47.094896089846479</v>
+        <v>19.694510120534076</v>
       </c>
       <c r="Z25" s="6">
         <f t="shared" si="61"/>
-        <v>49.011980111527478</v>
+        <v>20.454833429582422</v>
       </c>
       <c r="AA25" s="6">
         <f t="shared" si="61"/>
-        <v>49.556239698116102</v>
+        <v>19.747821590601554</v>
       </c>
       <c r="AB25" s="49">
         <f t="shared" si="61"/>
-        <v>53.030648305943252</v>
+        <v>23.049489798763673</v>
       </c>
       <c r="AC25" s="50">
         <f t="shared" si="61"/>
-        <v>53.364809435833145</v>
+        <v>20.962526227553397</v>
       </c>
       <c r="AD25" s="50">
         <f t="shared" si="61"/>
-        <v>55.324315176399224</v>
+        <v>23.390069305821751</v>
       </c>
       <c r="AE25" s="50">
         <f t="shared" si="61"/>
-        <v>57.48390168417292</v>
+        <v>25.006096894495819</v>
       </c>
       <c r="AF25" s="51">
         <f t="shared" si="61"/>
-        <v>59.840865363608117</v>
+        <v>25.531408180970306</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -15277,126 +15277,126 @@
       </c>
       <c r="B26" s="17">
         <f>AF25-$AF$3</f>
-        <v>32.320738987351533</v>
+        <v>-1.9887181952862747</v>
       </c>
       <c r="C26" s="18">
         <f>((AF25-AA25)-($AF$3-$AA$3))</f>
-        <v>7.1421992892354353</v>
+        <v>2.6411602141121726</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="5">
         <f>SUM(F26:AA26)</f>
-        <v>3992.475681678482</v>
+        <v>207.4224711608359</v>
       </c>
       <c r="F26">
         <f>(F3-F25)^2</f>
-        <v>14.221034302064918</v>
+        <v>2.2929922176406298E-4</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26:AF26" si="62">(G3-G25)^2</f>
-        <v>23.957906294396157</v>
+        <v>1.8137532605330526E-6</v>
       </c>
       <c r="H26">
         <f t="shared" si="62"/>
-        <v>29.683942809431439</v>
+        <v>1.2892988351959376E-4</v>
       </c>
       <c r="I26">
         <f t="shared" si="62"/>
-        <v>35.003395549451021</v>
+        <v>1.5064779818799183E-6</v>
       </c>
       <c r="J26">
         <f t="shared" si="62"/>
-        <v>40.933159979733723</v>
+        <v>8.1128209612465284E-5</v>
       </c>
       <c r="K26">
         <f t="shared" si="62"/>
-        <v>48.789392380098214</v>
+        <v>8.1674301058434951E-6</v>
       </c>
       <c r="L26">
         <f t="shared" si="62"/>
-        <v>55.812449942249231</v>
+        <v>8.7772175202978257E-6</v>
       </c>
       <c r="M26">
         <f t="shared" si="62"/>
-        <v>65.288059455791895</v>
+        <v>5.3813269851752143E-6</v>
       </c>
       <c r="N26">
         <f t="shared" si="62"/>
-        <v>76.582712732618504</v>
+        <v>1.0430361316792061E-5</v>
       </c>
       <c r="O26">
         <f t="shared" si="62"/>
-        <v>91.545746595471897</v>
+        <v>1.5752806470506964E-6</v>
       </c>
       <c r="P26">
         <f t="shared" si="62"/>
-        <v>108.46588547154252</v>
+        <v>2.7582476775656479E-6</v>
       </c>
       <c r="Q26">
         <f t="shared" si="62"/>
-        <v>127.5740104851149</v>
+        <v>1.3358724453405114E-5</v>
       </c>
       <c r="R26">
         <f t="shared" si="62"/>
-        <v>147.90156545378576</v>
+        <v>2.0784885199183794E-2</v>
       </c>
       <c r="S26">
         <f t="shared" si="62"/>
-        <v>160.15144138173196</v>
+        <v>0.22130428310267725</v>
       </c>
       <c r="T26">
         <f t="shared" si="62"/>
-        <v>155.25780730375479</v>
+        <v>1.4016707444519927</v>
       </c>
       <c r="U26">
         <f t="shared" si="62"/>
-        <v>38.177531546118402</v>
+        <v>76.967343357515261</v>
       </c>
       <c r="V26">
         <f t="shared" si="62"/>
-        <v>70.806852625906203</v>
+        <v>60.785277995904259</v>
       </c>
       <c r="W26">
         <f t="shared" si="62"/>
-        <v>279.90614456523497</v>
+        <v>15.220656227160115</v>
       </c>
       <c r="X26">
         <f t="shared" si="62"/>
-        <v>481.08180408160007</v>
+        <v>18.100936935443173</v>
       </c>
       <c r="Y26">
         <f t="shared" si="62"/>
-        <v>583.3527284084854</v>
+        <v>10.547489553185384</v>
       </c>
       <c r="Z26">
         <f t="shared" si="62"/>
-        <v>724.02324898429151</v>
+        <v>2.7207399669251222</v>
       </c>
       <c r="AA26">
         <f t="shared" si="62"/>
-        <v>633.95886132960845</v>
+        <v>21.435774085813897</v>
       </c>
       <c r="AB26" s="43">
         <f t="shared" si="62"/>
-        <v>922.75291300228741</v>
+        <v>0.156570416845636</v>
       </c>
       <c r="AC26" s="44">
         <f t="shared" si="62"/>
-        <v>880.6596008437707</v>
+        <v>7.4331139470847232</v>
       </c>
       <c r="AD26" s="44">
         <f t="shared" si="62"/>
-        <v>923.11545804323498</v>
+        <v>2.406937198838409</v>
       </c>
       <c r="AE26" s="44">
         <f t="shared" si="62"/>
-        <v>1052.6716452956466</v>
+        <v>1.0826143518193586E-3</v>
       </c>
       <c r="AF26" s="45">
         <f t="shared" si="62"/>
-        <v>1044.6301686885054</v>
+        <v>3.9550000602626976</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15405,126 +15405,126 @@
       </c>
       <c r="B27" s="20">
         <f>(B26/$AF$3)*100</f>
-        <v>117.4440064171971</v>
+        <v>-7.226413745694396</v>
       </c>
       <c r="C27" s="21">
         <f>((C26)/($AF$3-$AA$3))*100</f>
-        <v>227.28294744469372</v>
+        <v>84.048435758690971</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="5">
         <f>SUM(F27:AA27)</f>
-        <v>255.76600413695971</v>
+        <v>36.107055848515742</v>
       </c>
       <c r="F27">
         <f>SQRT(F26)</f>
-        <v>3.771078665589584</v>
+        <v>1.5142629288339029E-2</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="63">SQRT(G26)</f>
-        <v>4.8946814293063197</v>
+        <v>1.346756570629248E-3</v>
       </c>
       <c r="H27">
         <f t="shared" ref="H27" si="64">SQRT(H26)</f>
-        <v>5.4482972394530238</v>
+        <v>1.1354729566114455E-2</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27" si="65">SQRT(I26)</f>
-        <v>5.9163667524462191</v>
+        <v>1.2273866472631671E-3</v>
       </c>
       <c r="J27">
         <f t="shared" ref="J27" si="66">SQRT(J26)</f>
-        <v>6.3979027797969641</v>
+        <v>9.0071199399400295E-3</v>
       </c>
       <c r="K27">
         <f t="shared" ref="K27" si="67">SQRT(K26)</f>
-        <v>6.9849403991800969</v>
+        <v>2.8578716041564034E-3</v>
       </c>
       <c r="L27">
         <f t="shared" ref="L27" si="68">SQRT(L26)</f>
-        <v>7.4707730485036974</v>
+        <v>2.9626369200929474E-3</v>
       </c>
       <c r="M27">
         <f t="shared" ref="M27" si="69">SQRT(M26)</f>
-        <v>8.0801026884435014</v>
+        <v>2.3197687352784144E-3</v>
       </c>
       <c r="N27">
         <f t="shared" ref="N27" si="70">SQRT(N26)</f>
-        <v>8.7511549370707922</v>
+        <v>3.2296069910736913E-3</v>
       </c>
       <c r="O27">
         <f t="shared" ref="O27" si="71">SQRT(O26)</f>
-        <v>9.567954148901002</v>
+        <v>1.255101847282003E-3</v>
       </c>
       <c r="P27">
         <f t="shared" ref="P27" si="72">SQRT(P26)</f>
-        <v>10.414695649491756</v>
+        <v>1.6607973017697397E-3</v>
       </c>
       <c r="Q27">
         <f t="shared" ref="Q27" si="73">SQRT(Q26)</f>
-        <v>11.294866554551005</v>
+        <v>3.6549588853234879E-3</v>
       </c>
       <c r="R27">
         <f t="shared" ref="R27" si="74">SQRT(R26)</f>
-        <v>12.161478752758061</v>
+        <v>0.144169640351857</v>
       </c>
       <c r="S27">
         <f t="shared" ref="S27" si="75">SQRT(S26)</f>
-        <v>12.655095471063502</v>
+        <v>0.47042989180395123</v>
       </c>
       <c r="T27">
         <f t="shared" ref="T27" si="76">SQRT(T26)</f>
-        <v>12.460249086746011</v>
+        <v>1.1839217644979725</v>
       </c>
       <c r="U27">
         <f t="shared" ref="U27" si="77">SQRT(U26)</f>
-        <v>6.1787969335557875</v>
+        <v>8.7731034051534618</v>
       </c>
       <c r="V27">
         <f t="shared" ref="V27" si="78">SQRT(V26)</f>
-        <v>8.4146807797982568</v>
+        <v>7.7964913901000532</v>
       </c>
       <c r="W27">
         <f t="shared" ref="W27" si="79">SQRT(W26)</f>
-        <v>16.730395828109835</v>
+        <v>3.901365943763814</v>
       </c>
       <c r="X27">
         <f t="shared" ref="X27" si="80">SQRT(X26)</f>
-        <v>21.933577092704237</v>
+        <v>4.2545195892654171</v>
       </c>
       <c r="Y27">
         <f t="shared" ref="Y27" si="81">SQRT(Y26)</f>
-        <v>24.152696089846479</v>
+        <v>3.2476898794659235</v>
       </c>
       <c r="Z27">
         <f t="shared" ref="Z27" si="82">SQRT(Z26)</f>
-        <v>26.90768011152748</v>
+        <v>1.6494665704175766</v>
       </c>
       <c r="AA27">
         <f t="shared" ref="AA27" si="83">SQRT(AA26)</f>
-        <v>25.178539698116101</v>
+        <v>4.6298784093984473</v>
       </c>
       <c r="AB27" s="43">
         <f t="shared" ref="AB27" si="84">SQRT(AB26)</f>
-        <v>30.376848305943252</v>
+        <v>0.39568979876367294</v>
       </c>
       <c r="AC27" s="44">
         <f t="shared" ref="AC27" si="85">SQRT(AC26)</f>
-        <v>29.675909435833145</v>
+        <v>2.7263737724466033</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" ref="AD27" si="86">SQRT(AD26)</f>
-        <v>30.382815176399223</v>
+        <v>1.5514306941782507</v>
       </c>
       <c r="AE27" s="44">
         <f t="shared" ref="AE27" si="87">SQRT(AE26)</f>
-        <v>32.444901684172919</v>
+        <v>3.2903105504182406E-2</v>
       </c>
       <c r="AF27" s="45">
         <f t="shared" ref="AF27" si="88">SQRT(AF26)</f>
-        <v>32.320738987351533</v>
+        <v>1.9887181952862747</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16242,107 +16242,107 @@
       </c>
       <c r="F43">
         <f>G44-F44</f>
-        <v>2.99385764723805</v>
+        <v>1.1484873227916165E-5</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43" si="93">H44-G44</f>
-        <v>3.7676554936283395</v>
+        <v>2.255028742055229E-5</v>
       </c>
       <c r="H43">
         <f t="shared" ref="H43" si="94">I44-H44</f>
-        <v>4.909145505512523</v>
+        <v>3.264401835059369E-5</v>
       </c>
       <c r="I43">
         <f t="shared" ref="I43" si="95">J44-I44</f>
-        <v>6.3622943501348637</v>
+        <v>5.0484274171957652E-5</v>
       </c>
       <c r="J43">
         <f t="shared" ref="J43" si="96">K44-J44</f>
-        <v>8.6838484908003863</v>
+        <v>2.5015623958197369E-5</v>
       </c>
       <c r="K43">
         <f t="shared" ref="K43" si="97">L44-K44</f>
-        <v>10.028920953460002</v>
+        <v>3.9877470401494981E-4</v>
       </c>
       <c r="L43">
         <f t="shared" ref="L43" si="98">M44-L44</f>
-        <v>13.830333564569173</v>
+        <v>5.9066896877456483E-4</v>
       </c>
       <c r="M43">
         <f t="shared" ref="M43" si="99">N44-M44</f>
-        <v>17.725915203819021</v>
+        <v>1.0015964095042729E-3</v>
       </c>
       <c r="N43">
         <f t="shared" ref="N43" si="100">O44-N44</f>
-        <v>23.776403704346237</v>
+        <v>2.1538724319528878E-3</v>
       </c>
       <c r="O43">
         <f t="shared" ref="O43" si="101">P44-O44</f>
-        <v>29.691494337905581</v>
+        <v>6.4708216019570067E-3</v>
       </c>
       <c r="P43">
         <f t="shared" ref="P43" si="102">Q44-P44</f>
-        <v>37.068249335360946</v>
+        <v>1.1839825041991527E-2</v>
       </c>
       <c r="Q43">
         <f t="shared" ref="Q43" si="103">R44-Q44</f>
-        <v>48.057477134983088</v>
+        <v>1.9296375533823427E-2</v>
       </c>
       <c r="R43">
         <f t="shared" ref="R43" si="104">S44-R44</f>
-        <v>52.564503511872971</v>
+        <v>5.8129332708810974E-2</v>
       </c>
       <c r="S43">
         <f t="shared" ref="S43" si="105">T44-S44</f>
-        <v>54.065480279324106</v>
+        <v>0.12844364498600547</v>
       </c>
       <c r="T43">
         <f t="shared" ref="T43" si="106">U44-T44</f>
-        <v>89.499372913202023</v>
+        <v>0.22097471610234301</v>
       </c>
       <c r="U43">
         <f t="shared" ref="U43" si="107">V44-U44</f>
-        <v>92.823070776107443</v>
+        <v>0.62149948073024475</v>
       </c>
       <c r="V43">
         <f t="shared" ref="V43" si="108">W44-V44</f>
-        <v>102.52345105404453</v>
+        <v>0.85291198045037264</v>
       </c>
       <c r="W43">
         <f t="shared" ref="W43" si="109">X44-W44</f>
-        <v>116.32355850490728</v>
+        <v>0.74833762749904698</v>
       </c>
       <c r="X43">
         <f t="shared" ref="X43" si="110">Y44-X44</f>
-        <v>125.62170967239751</v>
+        <v>0.79745532388666618</v>
       </c>
       <c r="Y43">
         <f t="shared" ref="Y43" si="111">Z44-Y44</f>
-        <v>118.45172064921951</v>
+        <v>0.87926320653487577</v>
       </c>
       <c r="Z43">
         <f t="shared" ref="Z43" si="112">AA44-Z44</f>
-        <v>137.92255291189088</v>
+        <v>0.67778518879361105</v>
       </c>
       <c r="AA43">
         <f t="shared" ref="AA43" si="113">AB44-AA44</f>
-        <v>144.95420981128404</v>
+        <v>0.99330045793944954</v>
       </c>
       <c r="AB43" s="43">
         <f t="shared" ref="AB43" si="114">AC44-AB44</f>
-        <v>160.47605690128307</v>
+        <v>1.2168171188362855</v>
       </c>
       <c r="AC43" s="44">
         <f t="shared" ref="AC43" si="115">AD44-AC44</f>
-        <v>120.58378761542099</v>
+        <v>1.3122479732636734</v>
       </c>
       <c r="AD43" s="44">
         <f t="shared" ref="AD43" si="116">AE44-AD44</f>
-        <v>84.711555510339622</v>
+        <v>2.0303080731914829</v>
       </c>
       <c r="AE43" s="44">
         <f t="shared" ref="AE43" si="117">AF44-AE44</f>
-        <v>176.60022994550741</v>
+        <v>1.9211095128003262</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -16358,111 +16358,111 @@
       </c>
       <c r="F44" s="12">
         <f>$E$3+$C43*E4*(1/(1+EXP(-$A43*(F42-$B43))))</f>
-        <v>9.9777167305578605</v>
+        <v>1.3033441140150356E-2</v>
       </c>
       <c r="G44" s="12">
         <f>$E$3+$C43*F4*(1/(1+EXP(-$A43*(G42-$B43))))</f>
-        <v>12.97157437779591</v>
+        <v>1.3044926013378273E-2</v>
       </c>
       <c r="H44" s="12">
         <f t="shared" ref="H44:AF44" si="118">$E$3+$C43*G4*(1/(1+EXP(-$A43*(H42-$B43))))</f>
-        <v>16.73922987142425</v>
+        <v>1.3067476300798825E-2</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="118"/>
-        <v>21.648375376936773</v>
+        <v>1.3100120319149419E-2</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="118"/>
-        <v>28.010669727071637</v>
+        <v>1.3150604593321376E-2</v>
       </c>
       <c r="K44" s="12">
         <f>$E$3+$C43*J4*(1/(1+EXP(-$A43*(K42-$B43))))</f>
-        <v>36.694518217872023</v>
+        <v>1.3175620217279574E-2</v>
       </c>
       <c r="L44" s="12">
         <f t="shared" si="118"/>
-        <v>46.723439171332025</v>
+        <v>1.3574394921294523E-2</v>
       </c>
       <c r="M44" s="12">
         <f t="shared" si="118"/>
-        <v>60.553772735901198</v>
+        <v>1.4165063890069088E-2</v>
       </c>
       <c r="N44" s="12">
         <f t="shared" si="118"/>
-        <v>78.279687939720219</v>
+        <v>1.5166660299573361E-2</v>
       </c>
       <c r="O44" s="12">
         <f t="shared" si="118"/>
-        <v>102.05609164406646</v>
+        <v>1.7320532731526249E-2</v>
       </c>
       <c r="P44" s="12">
         <f t="shared" si="118"/>
-        <v>131.74758598197204</v>
+        <v>2.3791354333483256E-2</v>
       </c>
       <c r="Q44" s="12">
         <f t="shared" si="118"/>
-        <v>168.81583531733298</v>
+        <v>3.5631179375474782E-2</v>
       </c>
       <c r="R44" s="12">
         <f t="shared" si="118"/>
-        <v>216.87331245231607</v>
+        <v>5.492755490929821E-2</v>
       </c>
       <c r="S44" s="12">
         <f t="shared" si="118"/>
-        <v>269.43781596418904</v>
+        <v>0.11305688761810918</v>
       </c>
       <c r="T44" s="12">
         <f t="shared" si="118"/>
-        <v>323.50329624351315</v>
+        <v>0.24150053260411466</v>
       </c>
       <c r="U44" s="12">
         <f t="shared" si="118"/>
-        <v>413.00266915671517</v>
+        <v>0.46247524870645768</v>
       </c>
       <c r="V44" s="12">
         <f t="shared" si="118"/>
-        <v>505.82573993282261</v>
+        <v>1.0839747294367024</v>
       </c>
       <c r="W44" s="12">
         <f t="shared" si="118"/>
-        <v>608.34919098686714</v>
+        <v>1.936886709887075</v>
       </c>
       <c r="X44" s="12">
         <f t="shared" si="118"/>
-        <v>724.67274949177443</v>
+        <v>2.685224337386122</v>
       </c>
       <c r="Y44" s="12">
         <f t="shared" si="118"/>
-        <v>850.29445916417194</v>
+        <v>3.4826796612727882</v>
       </c>
       <c r="Z44" s="12">
         <f t="shared" si="118"/>
-        <v>968.74617981339145</v>
+        <v>4.3619428678076639</v>
       </c>
       <c r="AA44" s="12">
         <f t="shared" si="118"/>
-        <v>1106.6687327252823</v>
+        <v>5.039728056601275</v>
       </c>
       <c r="AB44" s="52">
         <f t="shared" si="118"/>
-        <v>1251.6229425365664</v>
+        <v>6.0330285145407245</v>
       </c>
       <c r="AC44" s="53">
         <f t="shared" si="118"/>
-        <v>1412.0989994378494</v>
+        <v>7.24984563337701</v>
       </c>
       <c r="AD44" s="53">
         <f t="shared" si="118"/>
-        <v>1532.6827870532704</v>
+        <v>8.5620936066406834</v>
       </c>
       <c r="AE44" s="53">
         <f t="shared" si="118"/>
-        <v>1617.3943425636101</v>
+        <v>10.592401679832166</v>
       </c>
       <c r="AF44" s="54">
         <f t="shared" si="118"/>
-        <v>1793.9945725091175</v>
+        <v>12.513511192632492</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -16471,126 +16471,126 @@
       </c>
       <c r="B45" s="17">
         <f>AF44-$AF$3</f>
-        <v>1766.474446132861</v>
+        <v>-15.006615183624088</v>
       </c>
       <c r="C45" s="18">
         <f>((AF44-AA44)-($AF$3-$AA$3))</f>
-        <v>684.18341340757854</v>
+        <v>4.3313567597746374</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="5">
         <f>SUM(F45:AA45)</f>
-        <v>4282469.6396791572</v>
+        <v>2264.5321555236942</v>
       </c>
       <c r="F45" s="3">
         <f>(F44-F$3)^2</f>
-        <v>99.275651086798632</v>
+        <v>9.3423602955384364E-7</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" ref="G45" si="119">(G44-G$3)^2</f>
-        <v>167.87281960735746</v>
+        <v>3.8223142931649723E-6</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" ref="H45" si="120">(H44-H$3)^2</f>
-        <v>279.66641733249639</v>
+        <v>8.5996952463765459E-6</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" ref="I45" si="121">(I44-I$3)^2</f>
-        <v>467.91640069794653</v>
+        <v>1.5209061525111243E-5</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" ref="J45" si="122">(J44-J$3)^2</f>
-        <v>783.58955844891284</v>
+        <v>2.3516635810315723E-5</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" ref="K45" si="123">(K44-K$3)^2</f>
-        <v>1345.0936365494629</v>
+        <v>3.3923399853362437E-5</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" ref="L45" si="124">(L44-L$3)^2</f>
-        <v>2181.1178245519677</v>
+        <v>5.5139610784896586E-5</v>
       </c>
       <c r="M45" s="3">
         <f t="shared" ref="M45" si="125">(M44-M$3)^2</f>
-        <v>3663.8533874598479</v>
+        <v>9.6725968286422986E-5</v>
       </c>
       <c r="N45" s="3">
         <f t="shared" ref="N45" si="126">(N44-N$3)^2</f>
-        <v>6123.1701630394755</v>
+        <v>1.9136128726739981E-4</v>
       </c>
       <c r="O45" s="3">
         <f t="shared" ref="O45" si="127">(O44-O$3)^2</f>
-        <v>10409.119324980158</v>
+        <v>1.8712782474924471E-4</v>
       </c>
       <c r="P45" s="3">
         <f t="shared" ref="P45" si="128">(P44-P$3)^2</f>
-        <v>17348.205306058378</v>
+        <v>1.2563373767752466E-4</v>
       </c>
       <c r="Q45" s="3">
         <f t="shared" ref="Q45" si="129">(Q44-Q$3)^2</f>
-        <v>28485.620139734143</v>
+        <v>1.1348952400226479E-5</v>
       </c>
       <c r="R45" s="3">
         <f t="shared" ref="R45" si="130">(R44-R$3)^2</f>
-        <v>46950.357804433312</v>
+        <v>1.9064000093324863E-2</v>
       </c>
       <c r="S45" s="3">
         <f t="shared" ref="S45" si="131">(S44-S$3)^2</f>
-        <v>72232.376197736681</v>
+        <v>0.31803183400297402</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" ref="T45" si="132">(T44-T$3)^2</f>
-        <v>103425.01390960568</v>
+        <v>2.7695598672807482</v>
       </c>
       <c r="U45" s="3">
         <f t="shared" ref="U45" si="133">(U44-U$3)^2</f>
-        <v>161770.44603823082</v>
+        <v>106.77553376074549</v>
       </c>
       <c r="V45" s="3">
         <f t="shared" ref="V45" si="134">(V44-V$3)^2</f>
-        <v>237133.97618769566</v>
+        <v>316.04751579562492</v>
       </c>
       <c r="W45" s="3">
         <f t="shared" ref="W45" si="135">(W44-W$3)^2</f>
-        <v>344287.99113525753</v>
+        <v>386.18983523680089</v>
       </c>
       <c r="X45" s="3">
         <f t="shared" ref="X45" si="136">(X44-X$3)^2</f>
-        <v>493318.48889840132</v>
+        <v>384.99053438315121</v>
       </c>
       <c r="Y45" s="3">
         <f t="shared" ref="Y45" si="137">(Y44-Y$3)^2</f>
-        <v>684511.76074405923</v>
+        <v>378.67293181333804</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" ref="Z45" si="138">(Z44-Z$3)^2</f>
-        <v>896130.84861663147</v>
+        <v>314.79123660625623</v>
       </c>
       <c r="AA45" s="3">
         <f t="shared" ref="AA45" si="139">(AA44-AA$3)^2</f>
-        <v>1171353.879517558</v>
+        <v>373.95715888367636</v>
       </c>
       <c r="AB45" s="46">
         <f t="shared" ref="AB45" si="140">(AB44-AB$3)^2</f>
-        <v>1510365.153307063</v>
+        <v>276.25004477185615</v>
       </c>
       <c r="AC45" s="47">
         <f t="shared" ref="AC45" si="141">(AC44-AC$3)^2</f>
-        <v>1927682.6042210187</v>
+        <v>270.24250846878641</v>
       </c>
       <c r="AD45" s="47">
         <f t="shared" ref="AD45" si="142">(AD44-AD$3)^2</f>
-        <v>2273283.7886850527</v>
+        <v>268.28495379882008</v>
       </c>
       <c r="AE45" s="47">
         <f t="shared" ref="AE45" si="143">(AE44-AE$3)^2</f>
-        <v>2535595.5369908721</v>
+        <v>208.70420302427613</v>
       </c>
       <c r="AF45" s="48">
         <f t="shared" ref="AF45" si="144">(AF44-AF$3)^2</f>
-        <v>3120431.9688403979</v>
+        <v>225.19849926937704</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16599,126 +16599,126 @@
       </c>
       <c r="B46" s="20">
         <f>(B45/$AF$3)*100</f>
-        <v>6418.8456912643915</v>
+        <v>-54.52960127600025</v>
       </c>
       <c r="C46" s="21">
         <f>((C45)/($AF$3-$AA$3))*100</f>
-        <v>21772.456423390038</v>
+        <v>137.83478882755475</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="5">
         <f>SUM(F46:AA46)</f>
-        <v>6555.5623430230271</v>
+        <v>126.36968203963491</v>
       </c>
       <c r="F46">
         <f>SQRT(F45)</f>
-        <v>9.9637167305578611</v>
+        <v>9.6655885984964392E-4</v>
       </c>
       <c r="G46">
         <f t="shared" ref="G46" si="145">SQRT(G45)</f>
-        <v>12.95657437779591</v>
+        <v>1.9550739866217269E-3</v>
       </c>
       <c r="H46">
         <f t="shared" ref="H46" si="146">SQRT(H45)</f>
-        <v>16.723229871424252</v>
+        <v>2.9325236992011755E-3</v>
       </c>
       <c r="I46">
         <f t="shared" ref="I46" si="147">SQRT(I45)</f>
-        <v>21.631375376936774</v>
+        <v>3.8998796808505827E-3</v>
       </c>
       <c r="J46">
         <f t="shared" ref="J46" si="148">SQRT(J45)</f>
-        <v>27.992669727071636</v>
+        <v>4.8493954066786225E-3</v>
       </c>
       <c r="K46">
         <f t="shared" ref="K46" si="149">SQRT(K45)</f>
-        <v>36.675518217872025</v>
+        <v>5.824379782720426E-3</v>
       </c>
       <c r="L46">
         <f t="shared" ref="L46" si="150">SQRT(L45)</f>
-        <v>46.702439171332024</v>
+        <v>7.425605078705478E-3</v>
       </c>
       <c r="M46">
         <f t="shared" ref="M46" si="151">SQRT(M45)</f>
-        <v>60.529772735901197</v>
+        <v>9.8349361099309123E-3</v>
       </c>
       <c r="N46">
         <f t="shared" ref="N46" si="152">SQRT(N45)</f>
-        <v>78.250687939720223</v>
+        <v>1.383333970042664E-2</v>
       </c>
       <c r="O46">
         <f t="shared" ref="O46" si="153">SQRT(O45)</f>
-        <v>102.02509164406645</v>
+        <v>1.3679467268473751E-2</v>
       </c>
       <c r="P46">
         <f t="shared" ref="P46" si="154">SQRT(P45)</f>
-        <v>131.71258598197204</v>
+        <v>1.1208645666516748E-2</v>
       </c>
       <c r="Q46">
         <f t="shared" ref="Q46" si="155">SQRT(Q45)</f>
-        <v>168.776835317333</v>
+        <v>3.3688206245252178E-3</v>
       </c>
       <c r="R46">
         <f t="shared" ref="R46" si="156">SQRT(R45)</f>
-        <v>216.68031245231606</v>
+        <v>0.1380724450907018</v>
       </c>
       <c r="S46">
         <f t="shared" ref="S46" si="157">SQRT(S45)</f>
-        <v>268.76081596418902</v>
+        <v>0.56394311238189088</v>
       </c>
       <c r="T46">
         <f t="shared" ref="T46" si="158">SQRT(T45)</f>
-        <v>321.59759624351312</v>
+        <v>1.6641994673958853</v>
       </c>
       <c r="U46">
         <f t="shared" ref="U46" si="159">SQRT(U45)</f>
-        <v>402.20696915671516</v>
+        <v>10.333224751293542</v>
       </c>
       <c r="V46">
         <f t="shared" ref="V46" si="160">SQRT(V45)</f>
-        <v>486.96403993282263</v>
+        <v>17.777725270563298</v>
       </c>
       <c r="W46">
         <f t="shared" ref="W46" si="161">SQRT(W45)</f>
-        <v>586.7605909868671</v>
+        <v>19.651713290112923</v>
       </c>
       <c r="X46">
         <f t="shared" ref="X46" si="162">SQRT(X45)</f>
-        <v>702.36634949177437</v>
+        <v>19.621175662613879</v>
       </c>
       <c r="Y46">
         <f t="shared" ref="Y46" si="163">SQRT(Y45)</f>
-        <v>827.35225916417198</v>
+        <v>19.459520338727213</v>
       </c>
       <c r="Z46">
         <f t="shared" ref="Z46" si="164">SQRT(Z45)</f>
-        <v>946.64187981339148</v>
+        <v>17.742357132192335</v>
       </c>
       <c r="AA46">
         <f t="shared" ref="AA46" si="165">SQRT(AA45)</f>
-        <v>1082.2910327252823</v>
+        <v>19.337971943398728</v>
       </c>
       <c r="AB46" s="43">
         <f t="shared" ref="AB46" si="166">SQRT(AB45)</f>
-        <v>1228.9691425365663</v>
+        <v>16.620771485459276</v>
       </c>
       <c r="AC46" s="44">
         <f t="shared" ref="AC46" si="167">SQRT(AC45)</f>
-        <v>1388.4100994378493</v>
+        <v>16.43905436662299</v>
       </c>
       <c r="AD46" s="44">
         <f t="shared" ref="AD46" si="168">SQRT(AD45)</f>
-        <v>1507.7412870532705</v>
+        <v>16.379406393359318</v>
       </c>
       <c r="AE46" s="44">
         <f t="shared" ref="AE46" si="169">SQRT(AE45)</f>
-        <v>1592.3553425636101</v>
+        <v>14.446598320167835</v>
       </c>
       <c r="AF46" s="45">
         <f t="shared" ref="AF46" si="170">SQRT(AF45)</f>
-        <v>1766.474446132861</v>
+        <v>15.006615183624088</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16839,107 +16839,107 @@
       </c>
       <c r="F53">
         <f>G54-F54</f>
-        <v>2.7694143446222554</v>
+        <v>1.0523186881371618E-5</v>
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="171">H54-G54</f>
-        <v>3.5637159723888505</v>
+        <v>2.0661624603571932E-5</v>
       </c>
       <c r="H53">
         <f t="shared" ref="H53" si="172">I54-H54</f>
-        <v>4.7244433367460577</v>
+        <v>3.0553097657174885E-5</v>
       </c>
       <c r="I53">
         <f t="shared" ref="I53" si="173">J54-I54</f>
-        <v>6.2210724060144749</v>
+        <v>4.8020282248786156E-5</v>
       </c>
       <c r="J53">
         <f t="shared" ref="J53" si="174">K54-J54</f>
-        <v>8.5828693826187248</v>
+        <v>2.5957007848333158E-5</v>
       </c>
       <c r="K53">
         <f t="shared" ref="K53" si="175">L54-K54</f>
-        <v>10.100968224663823</v>
+        <v>3.808130929131813E-4</v>
       </c>
       <c r="L53">
         <f t="shared" ref="L53" si="176">M54-L54</f>
-        <v>13.993762803046685</v>
+        <v>5.7687726058274283E-4</v>
       </c>
       <c r="M53">
         <f t="shared" ref="M53" si="177">N54-M54</f>
-        <v>18.061010086658747</v>
+        <v>9.916793536133648E-4</v>
       </c>
       <c r="N53">
         <f t="shared" ref="N53" si="178">O54-N54</f>
-        <v>24.285207590657436</v>
+        <v>2.1469898163530513E-3</v>
       </c>
       <c r="O53">
         <f t="shared" ref="O53" si="179">P54-O54</f>
-        <v>30.404894757359813</v>
+        <v>6.4726445793200083E-3</v>
       </c>
       <c r="P53">
         <f t="shared" ref="P53" si="180">Q54-P54</f>
-        <v>37.930767304603194</v>
+        <v>1.1918061581610961E-2</v>
       </c>
       <c r="Q53">
         <f t="shared" ref="Q53" si="181">R54-Q54</f>
-        <v>48.975994987784304</v>
+        <v>1.9482577059123971E-2</v>
       </c>
       <c r="R53">
         <f t="shared" ref="R53" si="182">S54-R54</f>
-        <v>53.338186326371471</v>
+        <v>5.8606064626900392E-2</v>
       </c>
       <c r="S53">
         <f t="shared" ref="S53" si="183">T54-S54</f>
-        <v>54.451498269778028</v>
+        <v>0.12933187638653879</v>
       </c>
       <c r="T53">
         <f t="shared" ref="T53" si="184">U54-T54</f>
-        <v>89.539002986442654</v>
+        <v>0.2218672259042391</v>
       </c>
       <c r="U53">
         <f t="shared" ref="U53" si="185">V54-U54</f>
-        <v>92.17168769662436</v>
+        <v>0.62244911451558371</v>
       </c>
       <c r="V53">
         <f t="shared" ref="V53" si="186">W54-V54</f>
-        <v>101.30213359705493</v>
+        <v>0.85073421572713315</v>
       </c>
       <c r="W53">
         <f t="shared" ref="W53" si="187">X54-W54</f>
-        <v>114.87923117729906</v>
+        <v>0.74321661783748283</v>
       </c>
       <c r="X53">
         <f t="shared" ref="X53" si="188">Y54-X54</f>
-        <v>124.62409563117058</v>
+        <v>0.79297021759576092</v>
       </c>
       <c r="Y53">
         <f t="shared" ref="Y53" si="189">Z54-Y54</f>
-        <v>118.93626591892109</v>
+        <v>0.88060009599406097</v>
       </c>
       <c r="Z53">
         <f t="shared" ref="Z53" si="190">AA54-Z54</f>
-        <v>141.06233109173104</v>
+        <v>0.69196392461097833</v>
       </c>
       <c r="AA53">
         <f t="shared" ref="AA53" si="191">AB54-AA54</f>
-        <v>152.18502798923919</v>
+        <v>1.0285002934217573</v>
       </c>
       <c r="AB53" s="43">
         <f t="shared" ref="AB53" si="192">AC54-AB54</f>
-        <v>173.39012072697619</v>
+        <v>1.2857749193363883</v>
       </c>
       <c r="AC53" s="44">
         <f t="shared" ref="AC53" si="193">AD54-AC54</f>
-        <v>139.41789273282188</v>
+        <v>1.4271405669137875</v>
       </c>
       <c r="AD53" s="44">
         <f t="shared" ref="AD53" si="194">AE54-AD54</f>
-        <v>109.07052973265809</v>
+        <v>2.2286996835393502</v>
       </c>
       <c r="AE53" s="44">
         <f t="shared" ref="AE53" si="195">AF54-AE54</f>
-        <v>212.45443043181945</v>
+        <v>2.1986567662454739</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -16955,111 +16955,111 @@
       </c>
       <c r="F54" s="12">
         <f>$E$3+($C53/($C53+E5))*E4*(1/(1+EXP(-$A53*(F52-$B53))))</f>
-        <v>8.3230805600049109</v>
+        <v>1.3027888255750981E-2</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" ref="G54:AF54" si="196">$E$3+($C53/($C53+F5))*F4*(1/(1+EXP(-$A53*(G52-$B53))))</f>
-        <v>11.092494904627166</v>
+        <v>1.3038411442632352E-2</v>
       </c>
       <c r="H54" s="12">
         <f t="shared" si="196"/>
-        <v>14.656210877016017</v>
+        <v>1.3059073067235924E-2</v>
       </c>
       <c r="I54" s="12">
         <f t="shared" si="196"/>
-        <v>19.380654213762075</v>
+        <v>1.3089626164893099E-2</v>
       </c>
       <c r="J54" s="12">
         <f t="shared" si="196"/>
-        <v>25.601726619776549</v>
+        <v>1.3137646447141885E-2</v>
       </c>
       <c r="K54" s="12">
         <f t="shared" si="196"/>
-        <v>34.184596002395274</v>
+        <v>1.3163603454990219E-2</v>
       </c>
       <c r="L54" s="12">
         <f t="shared" si="196"/>
-        <v>44.285564227059098</v>
+        <v>1.35444165479034E-2</v>
       </c>
       <c r="M54" s="12">
         <f t="shared" si="196"/>
-        <v>58.279327030105783</v>
+        <v>1.4121293808486143E-2</v>
       </c>
       <c r="N54" s="12">
         <f t="shared" si="196"/>
-        <v>76.34033711676453</v>
+        <v>1.5112973162099507E-2</v>
       </c>
       <c r="O54" s="12">
         <f t="shared" si="196"/>
-        <v>100.62554470742197</v>
+        <v>1.7259962978452559E-2</v>
       </c>
       <c r="P54" s="12">
         <f t="shared" si="196"/>
-        <v>131.03043946478178</v>
+        <v>2.3732607557772567E-2</v>
       </c>
       <c r="Q54" s="12">
         <f t="shared" si="196"/>
-        <v>168.96120676938497</v>
+        <v>3.5650669139383528E-2</v>
       </c>
       <c r="R54" s="12">
         <f t="shared" si="196"/>
-        <v>217.93720175716928</v>
+        <v>5.5133246198507499E-2</v>
       </c>
       <c r="S54" s="12">
         <f t="shared" si="196"/>
-        <v>271.27538808354075</v>
+        <v>0.11373931082540789</v>
       </c>
       <c r="T54" s="12">
         <f t="shared" si="196"/>
-        <v>325.72688635331878</v>
+        <v>0.24307118721194668</v>
       </c>
       <c r="U54" s="12">
         <f t="shared" si="196"/>
-        <v>415.26588933976143</v>
+        <v>0.46493841311618578</v>
       </c>
       <c r="V54" s="12">
         <f t="shared" si="196"/>
-        <v>507.43757703638579</v>
+        <v>1.0873875276317695</v>
       </c>
       <c r="W54" s="12">
         <f t="shared" si="196"/>
-        <v>608.73971063344072</v>
+        <v>1.9381217433589026</v>
       </c>
       <c r="X54" s="12">
         <f t="shared" si="196"/>
-        <v>723.61894181073978</v>
+        <v>2.6813383611963855</v>
       </c>
       <c r="Y54" s="12">
         <f t="shared" si="196"/>
-        <v>848.24303744191036</v>
+        <v>3.4743085787921464</v>
       </c>
       <c r="Z54" s="12">
         <f t="shared" si="196"/>
-        <v>967.17930336083145</v>
+        <v>4.3549086747862074</v>
       </c>
       <c r="AA54" s="12">
         <f t="shared" si="196"/>
-        <v>1108.2416344525625</v>
+        <v>5.0468725993971857</v>
       </c>
       <c r="AB54" s="52">
         <f t="shared" si="196"/>
-        <v>1260.4266624418017</v>
+        <v>6.075372892818943</v>
       </c>
       <c r="AC54" s="53">
         <f t="shared" si="196"/>
-        <v>1433.8167831687779</v>
+        <v>7.3611478121553313</v>
       </c>
       <c r="AD54" s="53">
         <f t="shared" si="196"/>
-        <v>1573.2346759015998</v>
+        <v>8.7882883790691189</v>
       </c>
       <c r="AE54" s="53">
         <f t="shared" si="196"/>
-        <v>1682.3052056342578</v>
+        <v>11.016988062608469</v>
       </c>
       <c r="AF54" s="54">
         <f t="shared" si="196"/>
-        <v>1894.7596360660773</v>
+        <v>13.215644828853943</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -17068,126 +17068,126 @@
       </c>
       <c r="B55" s="17">
         <f>AF54-$AF$3</f>
-        <v>1867.2395096898208</v>
+        <v>-14.304481547402638</v>
       </c>
       <c r="C55" s="18">
         <f>((AF54-AA54)-($AF$3-$AA$3))</f>
-        <v>783.3755752372582</v>
+        <v>5.0263458532001764</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="5">
         <f>SUM(F55:AA55)</f>
-        <v>4283026.7662174208</v>
+        <v>2264.757099506035</v>
       </c>
       <c r="F55" s="3">
         <f>(F54-F$3)^2</f>
-        <v>69.040819752651529</v>
+        <v>9.4500124330687116E-7</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" ref="G55" si="197">(G54-G$3)^2</f>
-        <v>122.71089336204082</v>
+        <v>3.8478296683956866E-6</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" ref="H55" si="198">(H54-H$3)^2</f>
-        <v>214.33577452349809</v>
+        <v>8.6490512238571157E-6</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" ref="I55" si="199">(I54-I$3)^2</f>
-        <v>374.95110451014574</v>
+        <v>1.5291023530288662E-5</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" ref="J55" si="200">(J54-J$3)^2</f>
-        <v>654.52706775546324</v>
+        <v>2.3642482072991916E-5</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" ref="K55" si="201">(K54-K$3)^2</f>
-        <v>1167.287950198888</v>
+        <v>3.4063524630602106E-5</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" ref="L55" si="202">(L54-L$3)^2</f>
-        <v>1959.3516462114399</v>
+        <v>5.5585724611176675E-5</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" ref="M55" si="203">(M54-M$3)^2</f>
-        <v>3393.6831273845733</v>
+        <v>9.7588836018254233E-5</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" ref="N55" si="204">(N54-N$3)^2</f>
-        <v>5823.4201725484845</v>
+        <v>1.9284951439656859E-4</v>
       </c>
       <c r="O55" s="3">
         <f t="shared" ref="O55" si="205">(O54-O$3)^2</f>
-        <v>10119.262424893515</v>
+        <v>1.8878861735349426E-4</v>
       </c>
       <c r="P55" s="3">
         <f t="shared" ref="P55" si="206">(P54-P$3)^2</f>
-        <v>17159.805160571308</v>
+        <v>1.2695413244716395E-4</v>
       </c>
       <c r="Q55" s="3">
         <f t="shared" ref="Q55" si="207">(Q54-Q$3)^2</f>
-        <v>28534.711939838853</v>
+        <v>1.1218017213877874E-5</v>
       </c>
       <c r="R55" s="3">
         <f t="shared" ref="R55" si="208">(R54-R$3)^2</f>
-        <v>47412.537398866836</v>
+        <v>1.9007241803761343E-2</v>
       </c>
       <c r="S55" s="3">
         <f t="shared" ref="S55" si="209">(S54-S$3)^2</f>
-        <v>73223.487633410521</v>
+        <v>0.31726260396943651</v>
       </c>
       <c r="T55" s="3">
         <f t="shared" ref="T55" si="210">(T54-T$3)^2</f>
-        <v>104860.16073127079</v>
+        <v>2.7643345691130117</v>
       </c>
       <c r="U55" s="3">
         <f t="shared" ref="U55" si="211">(U54-U$3)^2</f>
-        <v>163596.13406454245</v>
+        <v>106.72463496503417</v>
       </c>
       <c r="V55" s="3">
         <f t="shared" ref="V55" si="212">(V54-V$3)^2</f>
-        <v>238706.38762187358</v>
+        <v>315.92618386538481</v>
       </c>
       <c r="W55" s="3">
         <f t="shared" ref="W55" si="213">(W54-W$3)^2</f>
-        <v>344746.42671808292</v>
+        <v>386.14129571472455</v>
       </c>
       <c r="X55" s="3">
         <f t="shared" ref="X55" si="214">(X54-X$3)^2</f>
-        <v>491839.28130104055</v>
+        <v>385.14304432684122</v>
       </c>
       <c r="Y55" s="3">
         <f t="shared" ref="Y55" si="215">(Y54-Y$3)^2</f>
-        <v>681121.47228231863</v>
+        <v>378.99879638793828</v>
       </c>
       <c r="Z55" s="3">
         <f t="shared" ref="Z55" si="216">(Z54-Z$3)^2</f>
-        <v>893166.7619774756</v>
+        <v>315.04089241557466</v>
       </c>
       <c r="AA55" s="3">
         <f t="shared" ref="AA55" si="217">(AA54-AA$3)^2</f>
-        <v>1174761.0284069886</v>
+        <v>373.68088799189655</v>
       </c>
       <c r="AB55" s="46">
         <f t="shared" ref="AB55" si="218">(AB54-AB$3)^2</f>
-        <v>1532081.6589973711</v>
+        <v>274.84424534811563</v>
       </c>
       <c r="AC55" s="47">
         <f t="shared" ref="AC55" si="219">(AC54-AC$3)^2</f>
-        <v>1988460.6468900582</v>
+        <v>266.5954915076664</v>
       </c>
       <c r="AD55" s="47">
         <f t="shared" ref="AD55" si="220">(AD54-AD$3)^2</f>
-        <v>2397211.7585434625</v>
+        <v>260.92624567057652</v>
       </c>
       <c r="AE55" s="47">
         <f t="shared" ref="AE55" si="221">(AE54-AE$3)^2</f>
-        <v>2746531.2763373703</v>
+        <v>196.61681877235063</v>
       </c>
       <c r="AF55" s="48">
         <f t="shared" ref="AF55" si="222">(AF54-AF$3)^2</f>
-        <v>3486583.3865466826</v>
+        <v>204.61819233998256</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17196,126 +17196,126 @@
       </c>
       <c r="B56" s="20">
         <f>(B55/$AF$3)*100</f>
-        <v>6784.9961303259515</v>
+        <v>-51.978255302432231</v>
       </c>
       <c r="C56" s="21">
         <f>((C55)/($AF$3-$AA$3))*100</f>
-        <v>24929.003306370392</v>
+        <v>159.95110947317778</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="5">
         <f>SUM(F56:AA56)</f>
-        <v>6540.3964527627604</v>
+        <v>126.37254218545861</v>
       </c>
       <c r="F56">
         <f>SQRT(F55)</f>
-        <v>8.3090805600049116</v>
+        <v>9.7211174424901951E-4</v>
       </c>
       <c r="G56">
         <f t="shared" ref="G56" si="223">SQRT(G55)</f>
-        <v>11.077494904627166</v>
+        <v>1.961588557367647E-3</v>
       </c>
       <c r="H56">
         <f t="shared" ref="H56" si="224">SQRT(H55)</f>
-        <v>14.640210877016017</v>
+        <v>2.940926932764076E-3</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56" si="225">SQRT(I55)</f>
-        <v>19.363654213762075</v>
+        <v>3.910373835106902E-3</v>
       </c>
       <c r="J56">
         <f t="shared" ref="J56" si="226">SQRT(J55)</f>
-        <v>25.583726619776549</v>
+        <v>4.8623535528581133E-3</v>
       </c>
       <c r="K56">
         <f t="shared" ref="K56" si="227">SQRT(K55)</f>
-        <v>34.165596002395276</v>
+        <v>5.836396545009781E-3</v>
       </c>
       <c r="L56">
         <f t="shared" ref="L56" si="228">SQRT(L55)</f>
-        <v>44.264564227059097</v>
+        <v>7.4555834520966015E-3</v>
       </c>
       <c r="M56">
         <f t="shared" ref="M56" si="229">SQRT(M55)</f>
-        <v>58.255327030105782</v>
+        <v>9.8787061915138578E-3</v>
       </c>
       <c r="N56">
         <f t="shared" ref="N56" si="230">SQRT(N55)</f>
-        <v>76.311337116764534</v>
+        <v>1.3887026837900494E-2</v>
       </c>
       <c r="O56">
         <f t="shared" ref="O56" si="231">SQRT(O55)</f>
-        <v>100.59454470742196</v>
+        <v>1.3740037021547441E-2</v>
       </c>
       <c r="P56">
         <f t="shared" ref="P56" si="232">SQRT(P55)</f>
-        <v>130.99543946478178</v>
+        <v>1.1267392442227436E-2</v>
       </c>
       <c r="Q56">
         <f t="shared" ref="Q56" si="233">SQRT(Q55)</f>
-        <v>168.92220676938499</v>
+        <v>3.3493308606164715E-3</v>
       </c>
       <c r="R56">
         <f t="shared" ref="R56" si="234">SQRT(R55)</f>
-        <v>217.74420175716926</v>
+        <v>0.13786675380149249</v>
       </c>
       <c r="S56">
         <f t="shared" ref="S56" si="235">SQRT(S55)</f>
-        <v>270.59838808354073</v>
+        <v>0.56326068917459216</v>
       </c>
       <c r="T56">
         <f t="shared" ref="T56" si="236">SQRT(T55)</f>
-        <v>323.82118635331875</v>
+        <v>1.6626288127880533</v>
       </c>
       <c r="U56">
         <f t="shared" ref="U56" si="237">SQRT(U55)</f>
-        <v>404.47018933976142</v>
+        <v>10.330761586883813</v>
       </c>
       <c r="V56">
         <f t="shared" ref="V56" si="238">SQRT(V55)</f>
-        <v>488.5758770363858</v>
+        <v>17.77431247236823</v>
       </c>
       <c r="W56">
         <f t="shared" ref="W56" si="239">SQRT(W55)</f>
-        <v>587.15111063344068</v>
+        <v>19.650478256641097</v>
       </c>
       <c r="X56">
         <f t="shared" ref="X56" si="240">SQRT(X55)</f>
-        <v>701.31254181073973</v>
+        <v>19.625061638803615</v>
       </c>
       <c r="Y56">
         <f t="shared" ref="Y56" si="241">SQRT(Y55)</f>
-        <v>825.3008374419104</v>
+        <v>19.467891421207852</v>
       </c>
       <c r="Z56">
         <f t="shared" ref="Z56" si="242">SQRT(Z55)</f>
-        <v>945.07500336083149</v>
+        <v>17.749391325213793</v>
       </c>
       <c r="AA56">
         <f t="shared" ref="AA56" si="243">SQRT(AA55)</f>
-        <v>1083.8639344525625</v>
+        <v>19.330827400602814</v>
       </c>
       <c r="AB56" s="43">
         <f t="shared" ref="AB56" si="244">SQRT(AB55)</f>
-        <v>1237.7728624418016</v>
+        <v>16.578427107181056</v>
       </c>
       <c r="AC56" s="44">
         <f t="shared" ref="AC56" si="245">SQRT(AC55)</f>
-        <v>1410.1278831687778</v>
+        <v>16.32775218784467</v>
       </c>
       <c r="AD56" s="44">
         <f t="shared" ref="AD56" si="246">SQRT(AD55)</f>
-        <v>1548.2931759015999</v>
+        <v>16.153211620930882</v>
       </c>
       <c r="AE56" s="44">
         <f t="shared" ref="AE56" si="247">SQRT(AE55)</f>
-        <v>1657.2662056342579</v>
+        <v>14.022011937391532</v>
       </c>
       <c r="AF56" s="45">
         <f t="shared" ref="AF56" si="248">SQRT(AF55)</f>
-        <v>1867.2395096898208</v>
+        <v>14.304481547402638</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18033,107 +18033,107 @@
       </c>
       <c r="F72">
         <f>G73-F73</f>
-        <v>2.1258961499737858</v>
+        <v>7.7726293591772605E-6</v>
       </c>
       <c r="G72">
         <f t="shared" ref="G72" si="327">H73-G73</f>
-        <v>3.0683380132166</v>
+        <v>1.5641552969828179E-5</v>
       </c>
       <c r="H72">
         <f t="shared" ref="H72" si="328">I73-H73</f>
-        <v>4.4057930511737169</v>
+        <v>2.5623352499630839E-5</v>
       </c>
       <c r="I72">
         <f t="shared" ref="I72" si="329">J73-I73</f>
-        <v>6.1698719826129835</v>
+        <v>4.3129752235726224E-5</v>
       </c>
       <c r="J72">
         <f t="shared" ref="J72" si="330">K73-J73</f>
-        <v>8.8049099975777416</v>
+        <v>3.068245528828166E-5</v>
       </c>
       <c r="K72">
         <f t="shared" ref="K72" si="331">L73-K73</f>
-        <v>10.892760898573254</v>
+        <v>3.4572072541146776E-4</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72" si="332">M73-L73</f>
-        <v>15.107742408165805</v>
+        <v>5.6234115573693816E-4</v>
       </c>
       <c r="M72">
         <f t="shared" ref="M72" si="333">N73-M73</f>
-        <v>19.579937239398959</v>
+        <v>9.9943206281981854E-4</v>
       </c>
       <c r="N72">
         <f t="shared" ref="N72" si="334">O73-N73</f>
-        <v>26.092256544702252</v>
+        <v>2.1861958371132157E-3</v>
       </c>
       <c r="O72">
         <f t="shared" ref="O72" si="335">P73-O73</f>
-        <v>32.355136333687767</v>
+        <v>6.6031911609912529E-3</v>
       </c>
       <c r="P72">
         <f t="shared" ref="P72" si="336">Q73-P73</f>
-        <v>39.728572622539531</v>
+        <v>1.2222305473328286E-2</v>
       </c>
       <c r="Q72">
         <f t="shared" ref="Q72" si="337">R73-Q73</f>
-        <v>50.329108745936651</v>
+        <v>1.9922586718918091E-2</v>
       </c>
       <c r="R72">
         <f t="shared" ref="R72" si="338">S73-R73</f>
-        <v>53.762618180290275</v>
+        <v>5.9540455341911477E-2</v>
       </c>
       <c r="S72">
         <f t="shared" ref="S72" si="339">T73-S73</f>
-        <v>53.723981452839041</v>
+        <v>0.1304217360648065</v>
       </c>
       <c r="T72">
         <f t="shared" ref="T72" si="340">U73-T73</f>
-        <v>88.016552996291637</v>
+        <v>0.22176112334636053</v>
       </c>
       <c r="U72">
         <f t="shared" ref="U72" si="341">V73-U73</f>
-        <v>89.648540714488377</v>
+        <v>0.61971784888693149</v>
       </c>
       <c r="V72">
         <f t="shared" ref="V72" si="342">W73-V73</f>
-        <v>98.494148461441171</v>
+        <v>0.84186887609593053</v>
       </c>
       <c r="W72">
         <f t="shared" ref="W72" si="343">X73-W73</f>
-        <v>112.73904534925236</v>
+        <v>0.73385786111152518</v>
       </c>
       <c r="X72">
         <f t="shared" ref="X72" si="344">Y73-X73</f>
-        <v>124.46495323320266</v>
+        <v>0.79038150083279923</v>
       </c>
       <c r="Y72">
         <f t="shared" ref="Y72" si="345">Z73-Y73</f>
-        <v>122.34270990565051</v>
+        <v>0.89381127086325662</v>
       </c>
       <c r="Z72">
         <f t="shared" ref="Z72" si="346">AA73-Z73</f>
-        <v>149.55674063584672</v>
+        <v>0.73045850153450242</v>
       </c>
       <c r="AA72">
         <f t="shared" ref="AA72" si="347">AB73-AA73</f>
-        <v>167.62150794257354</v>
+        <v>1.1045686243974435</v>
       </c>
       <c r="AB72" s="43">
         <f t="shared" ref="AB72" si="348">AC73-AB73</f>
-        <v>197.90882814580596</v>
+        <v>1.4184409552214117</v>
       </c>
       <c r="AC72" s="44">
         <f t="shared" ref="AC72" si="349">AD73-AC73</f>
-        <v>172.52888043225471</v>
+        <v>1.6330132742496781</v>
       </c>
       <c r="AD72" s="44">
         <f t="shared" ref="AD72" si="350">AE73-AD73</f>
-        <v>149.93168854893634</v>
+        <v>2.5729067206743679</v>
       </c>
       <c r="AE72" s="44">
         <f t="shared" ref="AE72" si="351">AF73-AE73</f>
-        <v>272.11666980485052</v>
+        <v>2.6659337512972705</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -18149,111 +18149,111 @@
       </c>
       <c r="F73">
         <f>$E$3+(E4*$C72)*(EXP(-EXP($A72-$B72*F71)))</f>
-        <v>3.6399318817343054</v>
+        <v>1.3012171819897391E-2</v>
       </c>
       <c r="G73">
         <f t="shared" ref="G73:AF73" si="352">$E$3+(F4*$C72)*(EXP(-EXP($A72-$B72*G71)))</f>
-        <v>5.7658280317080912</v>
+        <v>1.3019944449256568E-2</v>
       </c>
       <c r="H73">
         <f t="shared" si="352"/>
-        <v>8.8341660449246913</v>
+        <v>1.3035586002226396E-2</v>
       </c>
       <c r="I73">
         <f t="shared" si="352"/>
-        <v>13.239959096098408</v>
+        <v>1.3061209354726027E-2</v>
       </c>
       <c r="J73">
         <f t="shared" si="352"/>
-        <v>19.409831078711392</v>
+        <v>1.3104339106961753E-2</v>
       </c>
       <c r="K73">
         <f t="shared" si="352"/>
-        <v>28.214741076289133</v>
+        <v>1.3135021562250035E-2</v>
       </c>
       <c r="L73">
         <f t="shared" si="352"/>
-        <v>39.107501974862387</v>
+        <v>1.3480742287661503E-2</v>
       </c>
       <c r="M73">
         <f t="shared" si="352"/>
-        <v>54.215244383028192</v>
+        <v>1.4043083443398441E-2</v>
       </c>
       <c r="N73">
         <f t="shared" si="352"/>
-        <v>73.795181622427151</v>
+        <v>1.5042515506218259E-2</v>
       </c>
       <c r="O73">
         <f t="shared" si="352"/>
-        <v>99.887438167129403</v>
+        <v>1.7228711343331475E-2</v>
       </c>
       <c r="P73">
         <f t="shared" si="352"/>
-        <v>132.24257450081717</v>
+        <v>2.3831902504322728E-2</v>
       </c>
       <c r="Q73">
         <f t="shared" si="352"/>
-        <v>171.9711471233567</v>
+        <v>3.6054207977651014E-2</v>
       </c>
       <c r="R73">
         <f t="shared" si="352"/>
-        <v>222.30025586929335</v>
+        <v>5.5976794696569104E-2</v>
       </c>
       <c r="S73">
         <f t="shared" si="352"/>
-        <v>276.06287404958363</v>
+        <v>0.11551725003848058</v>
       </c>
       <c r="T73">
         <f t="shared" si="352"/>
-        <v>329.78685550242267</v>
+        <v>0.2459389861032871</v>
       </c>
       <c r="U73">
         <f t="shared" si="352"/>
-        <v>417.8034084987143</v>
+        <v>0.46770010944964763</v>
       </c>
       <c r="V73">
         <f t="shared" si="352"/>
-        <v>507.45194921320268</v>
+        <v>1.0874179583365791</v>
       </c>
       <c r="W73">
         <f t="shared" si="352"/>
-        <v>605.94609767464385</v>
+        <v>1.9292868344325096</v>
       </c>
       <c r="X73">
         <f t="shared" si="352"/>
-        <v>718.68514302389622</v>
+        <v>2.6631446955440348</v>
       </c>
       <c r="Y73">
         <f t="shared" si="352"/>
-        <v>843.15009625709888</v>
+        <v>3.453526196376834</v>
       </c>
       <c r="Z73">
         <f t="shared" si="352"/>
-        <v>965.49280616274939</v>
+        <v>4.3473374672400906</v>
       </c>
       <c r="AA73">
         <f t="shared" si="352"/>
-        <v>1115.0495467985961</v>
+        <v>5.077795968774593</v>
       </c>
       <c r="AB73" s="43">
         <f t="shared" si="352"/>
-        <v>1282.6710547411697</v>
+        <v>6.1823645931720366</v>
       </c>
       <c r="AC73" s="44">
         <f t="shared" si="352"/>
-        <v>1480.5798828869756</v>
+        <v>7.6008055483934482</v>
       </c>
       <c r="AD73" s="44">
         <f t="shared" si="352"/>
-        <v>1653.1087633192303</v>
+        <v>9.2338188226431264</v>
       </c>
       <c r="AE73" s="44">
         <f t="shared" si="352"/>
-        <v>1803.0404518681667</v>
+        <v>11.806725543317494</v>
       </c>
       <c r="AF73" s="45">
         <f t="shared" si="352"/>
-        <v>2075.1571216730172</v>
+        <v>14.472659294614765</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -18262,126 +18262,126 @@
       </c>
       <c r="B74" s="17">
         <f>AF73-$AF$3</f>
-        <v>2047.6369952967607</v>
+        <v>-13.047467081641816</v>
       </c>
       <c r="C74" s="18">
         <f>((AF73-AA73)-($AF$3-$AA$3))</f>
-        <v>956.96514849816447</v>
+        <v>6.2524369495835916</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="5">
         <f>SUM(F74:AA74)</f>
-        <v>4284142.3325396599</v>
+        <v>2265.6327835296197</v>
       </c>
       <c r="F74" s="3">
         <f>(F73-F$3)^2</f>
-        <v>13.147382010977282</v>
+        <v>9.7580451340483347E-7</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" ref="G74" si="353">(G73-G$3)^2</f>
-        <v>33.072023050279562</v>
+        <v>3.9206199840298739E-6</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" ref="H74" si="354">(H73-H$3)^2</f>
-        <v>77.760052395862772</v>
+        <v>8.7877503501960827E-6</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" ref="I74" si="355">(I73-I$3)^2</f>
-        <v>174.84664725709163</v>
+        <v>1.5514071747297771E-5</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" ref="J74" si="356">(J73-J$3)^2</f>
-        <v>376.04311258527702</v>
+        <v>2.3967495579624029E-5</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" ref="K74" si="357">(K73-K$3)^2</f>
-        <v>794.99981484113835</v>
+        <v>3.4397972075272018E-5</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" ref="L74" si="358">(L73-L$3)^2</f>
-        <v>1527.7546366309211</v>
+        <v>5.6539236544561989E-5</v>
       </c>
       <c r="M74" s="3">
         <f t="shared" ref="M74" si="359">(M73-M$3)^2</f>
-        <v>2936.6909677810845</v>
+        <v>9.9140187315126263E-5</v>
       </c>
       <c r="N74" s="3">
         <f t="shared" ref="N74" si="360">(N73-N$3)^2</f>
-        <v>5441.4495511529094</v>
+        <v>1.9481137339415777E-4</v>
       </c>
       <c r="O74" s="3">
         <f t="shared" ref="O74" si="361">(O73-O$3)^2</f>
-        <v>9971.3082434257358</v>
+        <v>1.8964839126528718E-4</v>
       </c>
       <c r="P74" s="3">
         <f t="shared" ref="P74" si="362">(P73-P$3)^2</f>
-        <v>17478.842755389123</v>
+        <v>1.2472640167295303E-4</v>
       </c>
       <c r="Q74" s="3">
         <f t="shared" ref="Q74" si="363">(Q73-Q$3)^2</f>
-        <v>29560.663214447577</v>
+        <v>8.6776906389349305E-6</v>
       </c>
       <c r="R74" s="3">
         <f t="shared" ref="R74" si="364">(R73-R$3)^2</f>
-        <v>49331.633109787741</v>
+        <v>1.8775358791626173E-2</v>
       </c>
       <c r="S74" s="3">
         <f t="shared" ref="S74" si="365">(S73-S$3)^2</f>
-        <v>75837.379626053124</v>
+        <v>0.3152628785043502</v>
       </c>
       <c r="T74" s="3">
         <f t="shared" ref="T74" si="366">(T73-T$3)^2</f>
-        <v>107506.05213360387</v>
+        <v>2.7548066232514445</v>
       </c>
       <c r="U74" s="3">
         <f t="shared" ref="U74" si="367">(U73-U$3)^2</f>
-        <v>165655.27477737438</v>
+        <v>106.66758173920807</v>
       </c>
       <c r="V74" s="3">
         <f t="shared" ref="V74" si="368">(V73-V$3)^2</f>
-        <v>238720.43162621951</v>
+        <v>315.92510209659872</v>
       </c>
       <c r="W74" s="3">
         <f t="shared" ref="W74" si="369">(W73-W$3)^2</f>
-        <v>341473.68508857134</v>
+        <v>386.48859414185523</v>
       </c>
       <c r="X74" s="3">
         <f t="shared" ref="X74" si="370">(X73-X$3)^2</f>
-        <v>484943.35373554163</v>
+        <v>385.85747895603743</v>
       </c>
       <c r="Y74" s="3">
         <f t="shared" ref="Y74" si="371">(Y73-Y$3)^2</f>
-        <v>672740.99308249599</v>
+        <v>379.80840662402778</v>
       </c>
       <c r="Z74" s="3">
         <f t="shared" ref="Z74" si="372">(Z73-Z$3)^2</f>
-        <v>889981.87355998391</v>
+        <v>315.30971838983913</v>
       </c>
       <c r="AA74" s="3">
         <f t="shared" ref="AA74" si="373">(AA73-AA$3)^2</f>
-        <v>1189565.0773990604</v>
+        <v>372.48629561451082</v>
       </c>
       <c r="AB74" s="46">
         <f t="shared" ref="AB74" si="374">(AB73-AB$3)^2</f>
-        <v>1587643.4822454734</v>
+        <v>271.3081843613059</v>
       </c>
       <c r="AC74" s="47">
         <f t="shared" ref="AC74" si="375">(AC73-AC$3)^2</f>
-        <v>2122531.3360173777</v>
+        <v>258.8267830838135</v>
       </c>
       <c r="AD74" s="47">
         <f t="shared" ref="AD74" si="376">(AD73-AD$3)^2</f>
-        <v>2650928.6373444321</v>
+        <v>246.73124796949145</v>
       </c>
       <c r="AE74" s="47">
         <f t="shared" ref="AE74" si="377">(AE73-AE$3)^2</f>
-        <v>3161289.1628453084</v>
+        <v>175.09308729697233</v>
       </c>
       <c r="AF74" s="48">
         <f t="shared" ref="AF74" si="378">(AF73-AF$3)^2</f>
-        <v>4192817.2645079466</v>
+        <v>170.23639724652682</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18390,126 +18390,126 @@
       </c>
       <c r="B75" s="20">
         <f>(B74/$AF$3)*100</f>
-        <v>7440.5072393250039</v>
+        <v>-47.410636503830602</v>
       </c>
       <c r="C75" s="21">
         <f>((C74)/($AF$3-$AA$3))*100</f>
-        <v>30453.06504963055</v>
+        <v>198.96844670174315</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="5">
         <f>SUM(F75:AA75)</f>
-        <v>6506.0222780312888</v>
+        <v>126.38860830364946</v>
       </c>
       <c r="F75">
         <f>SQRT(F74)</f>
-        <v>3.6259318817343056</v>
+        <v>9.8782818010260953E-4</v>
       </c>
       <c r="G75">
         <f t="shared" ref="G75" si="379">SQRT(G74)</f>
-        <v>5.7508280317080915</v>
+        <v>1.9800555507434314E-3</v>
       </c>
       <c r="H75">
         <f t="shared" ref="H75" si="380">SQRT(H74)</f>
-        <v>8.8181660449246912</v>
+        <v>2.9644139977736041E-3</v>
       </c>
       <c r="I75">
         <f t="shared" ref="I75" si="381">SQRT(I74)</f>
-        <v>13.222959096098409</v>
+        <v>3.9387906452739742E-3</v>
       </c>
       <c r="J75">
         <f t="shared" ref="J75" si="382">SQRT(J74)</f>
-        <v>19.391831078711391</v>
+        <v>4.8956608930382454E-3</v>
       </c>
       <c r="K75">
         <f t="shared" ref="K75" si="383">SQRT(K74)</f>
-        <v>28.195741076289135</v>
+        <v>5.8649784377499646E-3</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75" si="384">SQRT(L74)</f>
-        <v>39.086501974862387</v>
+        <v>7.5192577123384986E-3</v>
       </c>
       <c r="M75">
         <f t="shared" ref="M75" si="385">SQRT(M74)</f>
-        <v>54.191244383028192</v>
+        <v>9.9569165566015597E-3</v>
       </c>
       <c r="N75">
         <f t="shared" ref="N75" si="386">SQRT(N74)</f>
-        <v>73.766181622427155</v>
+        <v>1.3957484493781742E-2</v>
       </c>
       <c r="O75">
         <f t="shared" ref="O75" si="387">SQRT(O74)</f>
-        <v>99.856438167129397</v>
+        <v>1.3771288656668525E-2</v>
       </c>
       <c r="P75">
         <f t="shared" ref="P75" si="388">SQRT(P74)</f>
-        <v>132.20757450081717</v>
+        <v>1.1168097495677275E-2</v>
       </c>
       <c r="Q75">
         <f t="shared" ref="Q75" si="389">SQRT(Q74)</f>
-        <v>171.93214712335671</v>
+        <v>2.9457920223489864E-3</v>
       </c>
       <c r="R75">
         <f t="shared" ref="R75" si="390">SQRT(R74)</f>
-        <v>222.10725586929334</v>
+        <v>0.1370232053034309</v>
       </c>
       <c r="S75">
         <f t="shared" ref="S75" si="391">SQRT(S74)</f>
-        <v>275.38587404958361</v>
+        <v>0.56148274996151948</v>
       </c>
       <c r="T75">
         <f t="shared" ref="T75" si="392">SQRT(T74)</f>
-        <v>327.88115550242264</v>
+        <v>1.6597610138967129</v>
       </c>
       <c r="U75">
         <f t="shared" ref="U75" si="393">SQRT(U74)</f>
-        <v>407.00770849871429</v>
+        <v>10.327999890550352</v>
       </c>
       <c r="V75">
         <f t="shared" ref="V75" si="394">SQRT(V74)</f>
-        <v>488.5902492132027</v>
+        <v>17.774282041663419</v>
       </c>
       <c r="W75">
         <f t="shared" ref="W75" si="395">SQRT(W74)</f>
-        <v>584.35749767464381</v>
+        <v>19.65931316556749</v>
       </c>
       <c r="X75">
         <f t="shared" ref="X75" si="396">SQRT(X74)</f>
-        <v>696.37874302389616</v>
+        <v>19.643255304455966</v>
       </c>
       <c r="Y75">
         <f t="shared" ref="Y75" si="397">SQRT(Y74)</f>
-        <v>820.20789625709892</v>
+        <v>19.488673803623165</v>
       </c>
       <c r="Z75">
         <f t="shared" ref="Z75" si="398">SQRT(Z74)</f>
-        <v>943.38850616274942</v>
+        <v>17.756962532759907</v>
       </c>
       <c r="AA75">
         <f t="shared" ref="AA75" si="399">SQRT(AA74)</f>
-        <v>1090.6718467985961</v>
+        <v>19.29990403122541</v>
       </c>
       <c r="AB75" s="43">
         <f t="shared" ref="AB75" si="400">SQRT(AB74)</f>
-        <v>1260.0172547411696</v>
+        <v>16.471435406827965</v>
       </c>
       <c r="AC75" s="44">
         <f t="shared" ref="AC75" si="401">SQRT(AC74)</f>
-        <v>1456.8909828869755</v>
+        <v>16.088094451606551</v>
       </c>
       <c r="AD75" s="44">
         <f t="shared" ref="AD75" si="402">SQRT(AD74)</f>
-        <v>1628.1672633192304</v>
+        <v>15.707681177356875</v>
       </c>
       <c r="AE75" s="44">
         <f t="shared" ref="AE75" si="403">SQRT(AE74)</f>
-        <v>1778.0014518681667</v>
+        <v>13.232274456682507</v>
       </c>
       <c r="AF75" s="45">
         <f t="shared" ref="AF75" si="404">SQRT(AF74)</f>
-        <v>2047.6369952967607</v>
+        <v>13.047467081641816</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18630,107 +18630,107 @@
       </c>
       <c r="F82">
         <f>G83-F83</f>
-        <v>2.0953072327983961</v>
+        <v>7.649659702096967E-6</v>
       </c>
       <c r="G82">
         <f t="shared" ref="G82" si="405">H83-G83</f>
-        <v>3.043276329398747</v>
+        <v>1.5436575774257014E-5</v>
       </c>
       <c r="H82">
         <f t="shared" ref="H82" si="406">I83-H83</f>
-        <v>4.3881534514993739</v>
+        <v>2.5418179139730102E-5</v>
       </c>
       <c r="I82">
         <f t="shared" ref="I82" si="407">J83-I83</f>
-        <v>6.1632393167336925</v>
+        <v>4.2924359738530371E-5</v>
       </c>
       <c r="J82">
         <f t="shared" ref="J82" si="408">K83-J83</f>
-        <v>8.8090656843884787</v>
+        <v>3.0839839792110371E-5</v>
       </c>
       <c r="K82">
         <f t="shared" ref="K82" si="409">L83-K83</f>
-        <v>10.918034162412958</v>
+        <v>3.4431721120782403E-4</v>
       </c>
       <c r="L82">
         <f t="shared" ref="L82" si="410">M83-L83</f>
-        <v>15.143232303746359</v>
+        <v>5.6161368826458322E-4</v>
       </c>
       <c r="M82">
         <f t="shared" ref="M82" si="411">N83-M83</f>
-        <v>19.62752815761381</v>
+        <v>9.9933578672467029E-4</v>
       </c>
       <c r="N82">
         <f t="shared" ref="N82" si="412">O83-N83</f>
-        <v>26.146538501287992</v>
+        <v>2.186736189084125E-3</v>
       </c>
       <c r="O82">
         <f t="shared" ref="O82" si="413">P83-O83</f>
-        <v>32.411887037432166</v>
+        <v>6.6052415480606502E-3</v>
       </c>
       <c r="P82">
         <f t="shared" ref="P82" si="414">Q83-P83</f>
-        <v>39.779507222381568</v>
+        <v>1.2228669776961007E-2</v>
       </c>
       <c r="Q82">
         <f t="shared" ref="Q82" si="415">R83-Q83</f>
-        <v>50.36725827432889</v>
+        <v>1.993245358781047E-2</v>
       </c>
       <c r="R82">
         <f t="shared" ref="R82" si="416">S83-R83</f>
-        <v>53.778822572547824</v>
+        <v>5.9560747663968037E-2</v>
       </c>
       <c r="S82">
         <f t="shared" ref="S82" si="417">T83-S83</f>
-        <v>53.714696395637532</v>
+        <v>0.13044746459297452</v>
       </c>
       <c r="T82">
         <f t="shared" ref="T82" si="418">U83-T83</f>
-        <v>87.991433495326532</v>
+        <v>0.22176705480527234</v>
       </c>
       <c r="U82">
         <f t="shared" ref="U82" si="419">V83-U83</f>
-        <v>89.604131459954772</v>
+        <v>0.61968759484080538</v>
       </c>
       <c r="V82">
         <f t="shared" ref="V82" si="420">W83-V83</f>
-        <v>98.444572139634772</v>
+        <v>0.84173045248877276</v>
       </c>
       <c r="W82">
         <f t="shared" ref="W82" si="421">X83-W83</f>
-        <v>112.70136490374171</v>
+        <v>0.7337021079867827</v>
       </c>
       <c r="X82">
         <f t="shared" ref="X82" si="422">Y83-X83</f>
-        <v>124.46144207286591</v>
+        <v>0.79033978119053039</v>
       </c>
       <c r="Y82">
         <f t="shared" ref="Y82" si="423">Z83-Y83</f>
-        <v>122.40011759047889</v>
+        <v>0.89403907654533299</v>
       </c>
       <c r="Z82">
         <f t="shared" ref="Z82" si="424">AA83-Z83</f>
-        <v>149.70231544791261</v>
+        <v>0.73111890520608735</v>
       </c>
       <c r="AA82">
         <f t="shared" ref="AA82" si="425">AB83-AA83</f>
-        <v>167.88959378834829</v>
+        <v>1.105892796013082</v>
       </c>
       <c r="AB82" s="43">
         <f t="shared" ref="AB82" si="426">AC83-AB83</f>
-        <v>198.34199542906731</v>
+        <v>1.4207862789519226</v>
       </c>
       <c r="AC82" s="44">
         <f t="shared" ref="AC82" si="427">AD83-AC83</f>
-        <v>173.12627321409991</v>
+        <v>1.6367219178401555</v>
       </c>
       <c r="AD82" s="44">
         <f t="shared" ref="AD82" si="428">AE83-AD83</f>
-        <v>150.68785981060228</v>
+        <v>2.5792286927565069</v>
       </c>
       <c r="AE82" s="44">
         <f t="shared" ref="AE82" si="429">AF83-AE83</f>
-        <v>273.2441395799699</v>
+        <v>2.674722724166628</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
@@ -18746,111 +18746,111 @@
       </c>
       <c r="F83">
         <f>$E$3+($C82/($C82+E5))*E4*(EXP(-EXP($A82-$B82*F81)))</f>
-        <v>3.4874068390269204</v>
+        <v>1.3011659952729709E-2</v>
       </c>
       <c r="G83">
         <f>$E$3+($C82/($C82+F5))*F4*(EXP(-EXP($A82-$B82*G81)))</f>
-        <v>5.5827140718253165</v>
+        <v>1.3019309612431806E-2</v>
       </c>
       <c r="H83">
         <f>$E$3+($C82/($C82+G5))*G4*(EXP(-EXP($A82-$B82*H81)))</f>
-        <v>8.6259904012240636</v>
+        <v>1.3034746188206063E-2</v>
       </c>
       <c r="I83">
         <f t="shared" ref="I83:AF83" si="430">$E$3+($C82/($C82+H5))*H4*(EXP(-EXP($A82-$B82*I81)))</f>
-        <v>13.014143852723437</v>
+        <v>1.3060164367345794E-2</v>
       </c>
       <c r="J83">
         <f t="shared" si="430"/>
-        <v>19.17738316945713</v>
+        <v>1.3103088727084324E-2</v>
       </c>
       <c r="K83">
         <f t="shared" si="430"/>
-        <v>27.986448853845609</v>
+        <v>1.3133928566876434E-2</v>
       </c>
       <c r="L83">
         <f t="shared" si="430"/>
-        <v>38.904483016258567</v>
+        <v>1.3478245778084258E-2</v>
       </c>
       <c r="M83">
         <f t="shared" si="430"/>
-        <v>54.047715320004926</v>
+        <v>1.4039859466348842E-2</v>
       </c>
       <c r="N83">
         <f t="shared" si="430"/>
-        <v>73.675243477618736</v>
+        <v>1.5039195253073512E-2</v>
       </c>
       <c r="O83">
         <f t="shared" si="430"/>
-        <v>99.821781978906728</v>
+        <v>1.7225931442157637E-2</v>
       </c>
       <c r="P83">
         <f t="shared" si="430"/>
-        <v>132.23366901633889</v>
+        <v>2.3831172990218287E-2</v>
       </c>
       <c r="Q83">
         <f t="shared" si="430"/>
-        <v>172.01317623872046</v>
+        <v>3.6059842767179294E-2</v>
       </c>
       <c r="R83">
         <f t="shared" si="430"/>
-        <v>222.38043451304935</v>
+        <v>5.5992296354989764E-2</v>
       </c>
       <c r="S83">
         <f t="shared" si="430"/>
-        <v>276.15925708559718</v>
+        <v>0.1155530440189578</v>
       </c>
       <c r="T83">
         <f t="shared" si="430"/>
-        <v>329.87395348123471</v>
+        <v>0.24600050861193232</v>
       </c>
       <c r="U83">
         <f t="shared" si="430"/>
-        <v>417.86538697656124</v>
+        <v>0.46776756341720466</v>
       </c>
       <c r="V83">
         <f t="shared" si="430"/>
-        <v>507.46951843651601</v>
+        <v>1.0874551582580101</v>
       </c>
       <c r="W83">
         <f t="shared" si="430"/>
-        <v>605.91409057615078</v>
+        <v>1.9291856107467829</v>
       </c>
       <c r="X83">
         <f t="shared" si="430"/>
-        <v>718.61545547989249</v>
+        <v>2.6628877187335656</v>
       </c>
       <c r="Y83">
         <f t="shared" si="430"/>
-        <v>843.0768975527584</v>
+        <v>3.4532274999240959</v>
       </c>
       <c r="Z83">
         <f t="shared" si="430"/>
-        <v>965.47701514323728</v>
+        <v>4.3472665764694289</v>
       </c>
       <c r="AA83">
         <f t="shared" si="430"/>
-        <v>1115.1793305911499</v>
+        <v>5.0783854816755163</v>
       </c>
       <c r="AB83" s="43">
         <f t="shared" si="430"/>
-        <v>1283.0689243794982</v>
+        <v>6.1842782776885983</v>
       </c>
       <c r="AC83" s="44">
         <f t="shared" si="430"/>
-        <v>1481.4109198085655</v>
+        <v>7.6050645566405208</v>
       </c>
       <c r="AD83" s="44">
         <f t="shared" si="430"/>
-        <v>1654.5371930226654</v>
+        <v>9.2417864744806764</v>
       </c>
       <c r="AE83" s="44">
         <f t="shared" si="430"/>
-        <v>1805.2250528332677</v>
+        <v>11.821015167237183</v>
       </c>
       <c r="AF83" s="45">
         <f t="shared" si="430"/>
-        <v>2078.4691924132376</v>
+        <v>14.495737891403811</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -18859,126 +18859,126 @@
       </c>
       <c r="B84" s="17">
         <f>AF83-$AF$3</f>
-        <v>2050.9490660369811</v>
+        <v>-13.02438848485277</v>
       </c>
       <c r="C84" s="28">
         <f>((AF83-AA83)-($AF$3-$AA$3))</f>
-        <v>960.14743544583109</v>
+        <v>6.274926033471715</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="5">
         <f>SUM(F84:AA84)</f>
-        <v>4284267.4580302089</v>
+        <v>2265.6353005716724</v>
       </c>
       <c r="F84" s="3">
         <f>(F83-F$3)^2</f>
-        <v>12.064555069398985</v>
+        <v>9.7681604903824078E-7</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" ref="G84" si="431">(G83-G$3)^2</f>
-        <v>30.999439985601651</v>
+        <v>3.9231344114050386E-6</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" ref="H84" si="432">(H83-H$3)^2</f>
-        <v>74.131934709170508</v>
+        <v>8.7927301683584727E-6</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" ref="I84" si="433">(I83-I$3)^2</f>
-        <v>168.92574832838665</v>
+        <v>1.5522304812331782E-5</v>
       </c>
       <c r="J84" s="3">
         <f t="shared" ref="J84" si="434">(J83-J$3)^2</f>
-        <v>367.08196343407712</v>
+        <v>2.3979740014808616E-5</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" ref="K84" si="435">(K83-K$3)^2</f>
-        <v>782.17819539247012</v>
+        <v>3.4410794058508356E-5</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" ref="L84" si="436">(L83-L$3)^2</f>
-        <v>1511.9252514756683</v>
+        <v>5.6576786574907308E-5</v>
       </c>
       <c r="M84" s="3">
         <f t="shared" ref="M84" si="437">(M83-M$3)^2</f>
-        <v>2918.561816976935</v>
+        <v>9.9204399450080795E-5</v>
       </c>
       <c r="N84" s="3">
         <f t="shared" ref="N84" si="438">(N83-N$3)^2</f>
-        <v>5423.7691783647006</v>
+        <v>1.949040691818052E-4</v>
       </c>
       <c r="O84" s="3">
         <f t="shared" ref="O84" si="439">(O83-O$3)^2</f>
-        <v>9958.2001679616951</v>
+        <v>1.8972496463614158E-4</v>
       </c>
       <c r="P84" s="3">
         <f t="shared" ref="P84" si="440">(P83-P$3)^2</f>
-        <v>17476.48808969152</v>
+        <v>1.2474269677442958E-4</v>
       </c>
       <c r="Q84" s="3">
         <f t="shared" ref="Q84" si="441">(Q83-Q$3)^2</f>
-        <v>29575.117292986492</v>
+        <v>8.6445245537079116E-6</v>
       </c>
       <c r="R84" s="3">
         <f t="shared" ref="R84" si="442">(R83-R$3)^2</f>
-        <v>49367.256055490587</v>
+        <v>1.8771110858078956E-2</v>
       </c>
       <c r="S84" s="3">
         <f t="shared" ref="S84" si="443">(S83-S$3)^2</f>
-        <v>75890.473968975042</v>
+        <v>0.31522268438037837</v>
       </c>
       <c r="T84" s="3">
         <f t="shared" ref="T84" si="444">(T83-T$3)^2</f>
-        <v>107563.1752915314</v>
+        <v>2.7546024017138104</v>
       </c>
       <c r="U84" s="3">
         <f t="shared" ref="U84" si="445">(U83-U$3)^2</f>
-        <v>165705.73005519554</v>
+        <v>106.66618841461904</v>
       </c>
       <c r="V84" s="3">
         <f t="shared" ref="V84" si="446">(V83-V$3)^2</f>
-        <v>238737.60023729142</v>
+        <v>315.92377969419169</v>
       </c>
       <c r="W84" s="3">
         <f t="shared" ref="W84" si="447">(W83-W$3)^2</f>
-        <v>341436.27893705922</v>
+        <v>386.49257412837648</v>
       </c>
       <c r="X84" s="3">
         <f t="shared" ref="X84" si="448">(X83-X$3)^2</f>
-        <v>484846.30074329994</v>
+        <v>385.86757474426526</v>
       </c>
       <c r="Y84" s="3">
         <f t="shared" ref="Y84" si="449">(Y83-Y$3)^2</f>
-        <v>672620.92212995456</v>
+        <v>379.82004910871478</v>
       </c>
       <c r="Z84" s="3">
         <f t="shared" ref="Z84" si="450">(Z83-Z$3)^2</f>
-        <v>889952.07967672357</v>
+        <v>315.31223600438176</v>
       </c>
       <c r="AA84" s="3">
         <f t="shared" ref="AA84" si="451">(AA83-AA$3)^2</f>
-        <v>1189848.1973003114</v>
+        <v>372.46354087721028</v>
       </c>
       <c r="AB84" s="46">
         <f t="shared" ref="AB84" si="452">(AB83-AB$3)^2</f>
-        <v>1588646.2857645857</v>
+        <v>271.24514576168713</v>
       </c>
       <c r="AC84" s="47">
         <f t="shared" ref="AC84" si="453">(AC83-AC$3)^2</f>
-        <v>2124953.4870347637</v>
+        <v>258.6897625690666</v>
       </c>
       <c r="AD84" s="47">
         <f t="shared" ref="AD84" si="454">(AD83-AD$3)^2</f>
-        <v>2655582.1227180213</v>
+        <v>246.48100478337443</v>
       </c>
       <c r="AE84" s="47">
         <f t="shared" ref="AE84" si="455">(AE83-AE$3)^2</f>
-        <v>3169062.3827020898</v>
+        <v>174.7151230391479</v>
       </c>
       <c r="AF84" s="48">
         <f t="shared" ref="AF84" si="456">(AF83-AF$3)^2</f>
-        <v>4206392.0714779655</v>
+        <v>169.63469540436543</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18987,126 +18987,126 @@
       </c>
       <c r="B85" s="20">
         <f>(B84/$AF$3)*100</f>
-        <v>7452.542324829109</v>
+        <v>-47.32677570874008</v>
       </c>
       <c r="C85" s="29">
         <f>((C84)/($AF$3-$AA$3))*100</f>
-        <v>30554.333514397502</v>
+        <v>199.68410655166181</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="5">
         <f>SUM(F85:AA85)</f>
-        <v>6504.5511960720978</v>
+        <v>126.38854139667779</v>
       </c>
       <c r="F85">
         <f>SQRT(F84)</f>
-        <v>3.4734068390269206</v>
+        <v>9.8834004727029086E-4</v>
       </c>
       <c r="G85">
         <f t="shared" ref="G85" si="457">SQRT(G84)</f>
-        <v>5.5677140718253169</v>
+        <v>1.980690387568193E-3</v>
       </c>
       <c r="H85">
         <f t="shared" ref="H85" si="458">SQRT(H84)</f>
-        <v>8.6099904012240636</v>
+        <v>2.9652538117939369E-3</v>
       </c>
       <c r="I85">
         <f t="shared" ref="I85" si="459">SQRT(I84)</f>
-        <v>12.997143852723438</v>
+        <v>3.9398356326542077E-3</v>
       </c>
       <c r="J85">
         <f t="shared" ref="J85" si="460">SQRT(J84)</f>
-        <v>19.159383169457129</v>
+        <v>4.8969112729156748E-3</v>
       </c>
       <c r="K85">
         <f t="shared" ref="K85" si="461">SQRT(K84)</f>
-        <v>27.96744885384561</v>
+        <v>5.8660714331235653E-3</v>
       </c>
       <c r="L85">
         <f t="shared" ref="L85" si="462">SQRT(L84)</f>
-        <v>38.883483016258566</v>
+        <v>7.521754221915743E-3</v>
       </c>
       <c r="M85">
         <f t="shared" ref="M85" si="463">SQRT(M84)</f>
-        <v>54.023715320004925</v>
+        <v>9.960140533651159E-3</v>
       </c>
       <c r="N85">
         <f t="shared" ref="N85" si="464">SQRT(N84)</f>
-        <v>73.646243477618739</v>
+        <v>1.396080474692649E-2</v>
       </c>
       <c r="O85">
         <f t="shared" ref="O85" si="465">SQRT(O84)</f>
-        <v>99.790781978906722</v>
+        <v>1.3774068557842363E-2</v>
       </c>
       <c r="P85">
         <f t="shared" ref="P85" si="466">SQRT(P84)</f>
-        <v>132.1986690163389</v>
+        <v>1.1168827009781716E-2</v>
       </c>
       <c r="Q85">
         <f t="shared" ref="Q85" si="467">SQRT(Q84)</f>
-        <v>171.97417623872047</v>
+        <v>2.940157232820706E-3</v>
       </c>
       <c r="R85">
         <f t="shared" ref="R85" si="468">SQRT(R84)</f>
-        <v>222.18743451304934</v>
+        <v>0.13700770364501025</v>
       </c>
       <c r="S85">
         <f t="shared" ref="S85" si="469">SQRT(S84)</f>
-        <v>275.48225708559715</v>
+        <v>0.56144695598104222</v>
       </c>
       <c r="T85">
         <f t="shared" ref="T85" si="470">SQRT(T84)</f>
-        <v>327.96825348123468</v>
+        <v>1.6596994913880676</v>
       </c>
       <c r="U85">
         <f t="shared" ref="U85" si="471">SQRT(U84)</f>
-        <v>407.06968697656123</v>
+        <v>10.327932436582795</v>
       </c>
       <c r="V85">
         <f t="shared" ref="V85" si="472">SQRT(V84)</f>
-        <v>488.60781843651603</v>
+        <v>17.774244841741989</v>
       </c>
       <c r="W85">
         <f t="shared" ref="W85" si="473">SQRT(W84)</f>
-        <v>584.32549057615074</v>
+        <v>19.659414389253218</v>
       </c>
       <c r="X85">
         <f t="shared" ref="X85" si="474">SQRT(X84)</f>
-        <v>696.30905547989244</v>
+        <v>19.643512281266435</v>
       </c>
       <c r="Y85">
         <f t="shared" ref="Y85" si="475">SQRT(Y84)</f>
-        <v>820.13469755275844</v>
+        <v>19.488972500075903</v>
       </c>
       <c r="Z85">
         <f t="shared" ref="Z85" si="476">SQRT(Z84)</f>
-        <v>943.37271514323731</v>
+        <v>17.757033423530569</v>
       </c>
       <c r="AA85">
         <f t="shared" ref="AA85" si="477">SQRT(AA84)</f>
-        <v>1090.8016305911499</v>
+        <v>19.299314518324486</v>
       </c>
       <c r="AB85" s="43">
         <f t="shared" ref="AB85" si="478">SQRT(AB84)</f>
-        <v>1260.4151243794981</v>
+        <v>16.469521722311402</v>
       </c>
       <c r="AC85" s="44">
         <f t="shared" ref="AC85" si="479">SQRT(AC84)</f>
-        <v>1457.7220198085654</v>
+        <v>16.083835443359479</v>
       </c>
       <c r="AD85" s="44">
         <f t="shared" ref="AD85" si="480">SQRT(AD84)</f>
-        <v>1629.5956930226655</v>
+        <v>15.699713525519325</v>
       </c>
       <c r="AE85" s="44">
         <f t="shared" ref="AE85" si="481">SQRT(AE84)</f>
-        <v>1780.1860528332677</v>
+        <v>13.217984832762818</v>
       </c>
       <c r="AF85" s="45">
         <f t="shared" ref="AF85" si="482">SQRT(AF84)</f>
-        <v>2050.9490660369811</v>
+        <v>13.02438848485277</v>
       </c>
     </row>
   </sheetData>
@@ -19137,115 +19137,115 @@
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="61">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>4.4908999999999998E-2</v>
       </c>
       <c r="B2" s="61">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>4.7833411111111113E-2</v>
       </c>
       <c r="C2" s="61">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>5.6997244444444449E-2</v>
       </c>
       <c r="D2" s="61">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>6.7151500000000003E-2</v>
       </c>
       <c r="E2" s="61">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>8.0289055555555572E-2</v>
       </c>
       <c r="F2" s="61">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>7.4515250000000005E-2</v>
       </c>
       <c r="G2" s="61">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.1942865</v>
       </c>
       <c r="H2" s="61">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.31479300555555562</v>
       </c>
       <c r="I2" s="61">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>0.4688157444444444</v>
       </c>
       <c r="J2" s="61">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>0.75098587288888896</v>
       </c>
       <c r="K2" s="61">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>1.5125292461111111</v>
       </c>
       <c r="L2" s="61">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>2.5696538138888889</v>
       </c>
       <c r="M2" s="61">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>3.8781358194444442</v>
       </c>
       <c r="N2" s="61">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>7.5893511322222222</v>
       </c>
       <c r="O2" s="61">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>14.32391649666268</v>
       </c>
       <c r="P2" s="61">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>23.49694855276784</v>
       </c>
       <c r="Q2" s="61">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>47.169829848214562</v>
       </c>
       <c r="R2" s="61">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>72.209920163895447</v>
       </c>
       <c r="S2" s="61">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>86.539293843353136</v>
       </c>
       <c r="T2" s="61">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>98.23745086832993</v>
       </c>
       <c r="U2" s="61">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>109.12889129282949</v>
       </c>
       <c r="V2" s="61">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>113.33675806052599</v>
       </c>
       <c r="W2" s="61">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>123.6098622674243</v>
       </c>
       <c r="X2" s="61">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>137.07028077749499</v>
       </c>
       <c r="Y2" s="61">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>151.15856223130299</v>
       </c>
       <c r="Z2" s="61">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>176.52050900938389</v>
       </c>
       <c r="AA2" s="61">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>198.72932143421099</v>
       </c>
       <c r="AB2" s="61">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>246.43538769986671</v>
       </c>
       <c r="AC2" s="60">
         <f t="shared" ref="AC2" si="0">E8</f>
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B8">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>4.4908999999999998E-2</v>
       </c>
       <c r="C8">
         <f>A8*$A$5+$B$5</f>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B9">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>4.7833411111111113E-2</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C35" si="1">A9*$A$5+$B$5</f>
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B10">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>5.6997244444444449E-2</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="B11">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>6.7151500000000003E-2</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -19772,7 +19772,7 @@
       </c>
       <c r="B12">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>8.0289055555555572E-2</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -19802,7 +19802,7 @@
       </c>
       <c r="B13">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>7.4515250000000005E-2</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -19826,7 +19826,7 @@
       </c>
       <c r="B14">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.1942865</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="B15">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.31479300555555562</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="B16">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>0.4688157444444444</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="B17">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>0.75098587288888896</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="B18">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>1.5125292461111111</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -20009,7 +20009,7 @@
       </c>
       <c r="B19">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>2.5696538138888889</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="B20">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>3.8781358194444442</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -20082,7 +20082,7 @@
       </c>
       <c r="B21">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>7.5893511322222222</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="B22">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>14.32391649666268</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="B23">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>23.49694855276784</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -20208,7 +20208,7 @@
       </c>
       <c r="B24">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>47.169829848214562</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -20232,7 +20232,7 @@
       </c>
       <c r="B25">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>72.209920163895447</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="B26">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>86.539293843353136</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -20280,7 +20280,7 @@
       </c>
       <c r="B27">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>98.23745086832993</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -20304,7 +20304,7 @@
       </c>
       <c r="B28">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>109.12889129282949</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="B29">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>113.33675806052599</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="B30">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>123.6098622674243</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -20372,7 +20372,7 @@
       </c>
       <c r="B31">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>137.07028077749499</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B32">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>151.15856223130299</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -20412,7 +20412,7 @@
       </c>
       <c r="B33">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>176.52050900938389</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B34">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>198.72932143421099</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -20452,7 +20452,7 @@
       </c>
       <c r="B35">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>246.43538769986671</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
